--- a/BackTest/2020-01-16 BackTest HYC.xlsx
+++ b/BackTest/2020-01-16 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M256"/>
+  <dimension ref="A1:M257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="C2" t="n">
         <v>1.81</v>
@@ -442,13 +442,13 @@
         <v>1.81</v>
       </c>
       <c r="E2" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="F2" t="n">
-        <v>188497.6572</v>
+        <v>201205.4229</v>
       </c>
       <c r="G2" t="n">
-        <v>1.802199999999999</v>
+        <v>1.801433333333332</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="C3" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="D3" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="E3" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="F3" t="n">
-        <v>996.9307</v>
+        <v>188497.6572</v>
       </c>
       <c r="G3" t="n">
-        <v>1.802699999999998</v>
+        <v>1.802199999999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.817</v>
+        <v>1.82</v>
       </c>
       <c r="C4" t="n">
-        <v>1.817</v>
+        <v>1.82</v>
       </c>
       <c r="D4" t="n">
-        <v>1.817</v>
+        <v>1.82</v>
       </c>
       <c r="E4" t="n">
-        <v>1.817</v>
+        <v>1.82</v>
       </c>
       <c r="F4" t="n">
-        <v>19325.5184</v>
+        <v>996.9307</v>
       </c>
       <c r="G4" t="n">
-        <v>1.802166666666665</v>
+        <v>1.802699999999998</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>1.817</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0001</v>
+        <v>19325.5184</v>
       </c>
       <c r="G5" t="n">
-        <v>1.802533333333332</v>
+        <v>1.802166666666665</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.806</v>
+        <v>1.817</v>
       </c>
       <c r="C6" t="n">
-        <v>1.806</v>
+        <v>1.817</v>
       </c>
       <c r="D6" t="n">
-        <v>1.806</v>
+        <v>1.817</v>
       </c>
       <c r="E6" t="n">
-        <v>1.806</v>
+        <v>1.817</v>
       </c>
       <c r="F6" t="n">
-        <v>80640</v>
+        <v>0.0001</v>
       </c>
       <c r="G6" t="n">
-        <v>1.802716666666665</v>
+        <v>1.802533333333332</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>1.806</v>
       </c>
       <c r="F7" t="n">
-        <v>39830</v>
+        <v>80640</v>
       </c>
       <c r="G7" t="n">
-        <v>1.803149999999998</v>
+        <v>1.802716666666665</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.79</v>
+        <v>1.806</v>
       </c>
       <c r="C8" t="n">
-        <v>1.799</v>
+        <v>1.806</v>
       </c>
       <c r="D8" t="n">
-        <v>1.799</v>
+        <v>1.806</v>
       </c>
       <c r="E8" t="n">
-        <v>1.79</v>
+        <v>1.806</v>
       </c>
       <c r="F8" t="n">
-        <v>52093.3893</v>
+        <v>39830</v>
       </c>
       <c r="G8" t="n">
-        <v>1.803299999999998</v>
+        <v>1.803149999999998</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.789</v>
+        <v>1.79</v>
       </c>
       <c r="C9" t="n">
-        <v>1.88</v>
+        <v>1.799</v>
       </c>
       <c r="D9" t="n">
-        <v>1.88</v>
+        <v>1.799</v>
       </c>
       <c r="E9" t="n">
-        <v>1.781</v>
+        <v>1.79</v>
       </c>
       <c r="F9" t="n">
-        <v>647776.9414</v>
+        <v>52093.3893</v>
       </c>
       <c r="G9" t="n">
-        <v>1.804799999999998</v>
+        <v>1.803299999999998</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.82</v>
+        <v>1.789</v>
       </c>
       <c r="C10" t="n">
-        <v>1.796</v>
+        <v>1.88</v>
       </c>
       <c r="D10" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="E10" t="n">
-        <v>1.796</v>
+        <v>1.781</v>
       </c>
       <c r="F10" t="n">
-        <v>670724.9802</v>
+        <v>647776.9414</v>
       </c>
       <c r="G10" t="n">
-        <v>1.804866666666665</v>
+        <v>1.804799999999998</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.798</v>
+        <v>1.82</v>
       </c>
       <c r="C11" t="n">
-        <v>1.798</v>
+        <v>1.796</v>
       </c>
       <c r="D11" t="n">
-        <v>1.798</v>
+        <v>1.82</v>
       </c>
       <c r="E11" t="n">
-        <v>1.798</v>
+        <v>1.796</v>
       </c>
       <c r="F11" t="n">
-        <v>107897.664</v>
+        <v>670724.9802</v>
       </c>
       <c r="G11" t="n">
-        <v>1.804883333333331</v>
+        <v>1.804866666666665</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.81</v>
+        <v>1.798</v>
       </c>
       <c r="C12" t="n">
-        <v>1.81</v>
+        <v>1.798</v>
       </c>
       <c r="D12" t="n">
-        <v>1.81</v>
+        <v>1.798</v>
       </c>
       <c r="E12" t="n">
-        <v>1.81</v>
+        <v>1.798</v>
       </c>
       <c r="F12" t="n">
-        <v>17625.7088</v>
+        <v>107897.664</v>
       </c>
       <c r="G12" t="n">
-        <v>1.805033333333331</v>
+        <v>1.804883333333331</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>1.81</v>
       </c>
       <c r="C13" t="n">
-        <v>1.797</v>
+        <v>1.81</v>
       </c>
       <c r="D13" t="n">
         <v>1.81</v>
       </c>
       <c r="E13" t="n">
-        <v>1.797</v>
+        <v>1.81</v>
       </c>
       <c r="F13" t="n">
-        <v>99682.1407</v>
+        <v>17625.7088</v>
       </c>
       <c r="G13" t="n">
-        <v>1.804966666666665</v>
+        <v>1.805033333333331</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.801</v>
+        <v>1.81</v>
       </c>
       <c r="C14" t="n">
-        <v>1.8</v>
+        <v>1.797</v>
       </c>
       <c r="D14" t="n">
-        <v>1.801</v>
+        <v>1.81</v>
       </c>
       <c r="E14" t="n">
-        <v>1.8</v>
+        <v>1.797</v>
       </c>
       <c r="F14" t="n">
-        <v>39830</v>
+        <v>99682.1407</v>
       </c>
       <c r="G14" t="n">
-        <v>1.804949999999998</v>
+        <v>1.804966666666665</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.803</v>
+        <v>1.801</v>
       </c>
       <c r="C15" t="n">
-        <v>1.796</v>
+        <v>1.8</v>
       </c>
       <c r="D15" t="n">
-        <v>1.803</v>
+        <v>1.801</v>
       </c>
       <c r="E15" t="n">
-        <v>1.796</v>
+        <v>1.8</v>
       </c>
       <c r="F15" t="n">
-        <v>117898.3958</v>
+        <v>39830</v>
       </c>
       <c r="G15" t="n">
-        <v>1.805016666666664</v>
+        <v>1.804949999999998</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,32 +923,38 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.797</v>
+        <v>1.803</v>
       </c>
       <c r="C16" t="n">
-        <v>1.787</v>
+        <v>1.796</v>
       </c>
       <c r="D16" t="n">
-        <v>1.797</v>
+        <v>1.803</v>
       </c>
       <c r="E16" t="n">
-        <v>1.787</v>
+        <v>1.796</v>
       </c>
       <c r="F16" t="n">
-        <v>945912.8026000001</v>
+        <v>117898.3958</v>
       </c>
       <c r="G16" t="n">
-        <v>1.804799999999998</v>
+        <v>1.805016666666664</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1.8</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -958,22 +964,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.814</v>
+        <v>1.797</v>
       </c>
       <c r="C17" t="n">
-        <v>1.814</v>
+        <v>1.787</v>
       </c>
       <c r="D17" t="n">
-        <v>1.814</v>
+        <v>1.797</v>
       </c>
       <c r="E17" t="n">
-        <v>1.814</v>
+        <v>1.787</v>
       </c>
       <c r="F17" t="n">
-        <v>885.4819</v>
+        <v>945912.8026000001</v>
       </c>
       <c r="G17" t="n">
-        <v>1.805183333333332</v>
+        <v>1.804799999999998</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -983,7 +989,11 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1005,20 +1015,26 @@
         <v>1.814</v>
       </c>
       <c r="F18" t="n">
-        <v>6667.7883</v>
+        <v>885.4819</v>
       </c>
       <c r="G18" t="n">
-        <v>1.805683333333331</v>
+        <v>1.805183333333332</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1.787</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1028,22 +1044,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.792</v>
+        <v>1.814</v>
       </c>
       <c r="C19" t="n">
-        <v>1.789</v>
+        <v>1.814</v>
       </c>
       <c r="D19" t="n">
-        <v>1.792</v>
+        <v>1.814</v>
       </c>
       <c r="E19" t="n">
-        <v>1.789</v>
+        <v>1.814</v>
       </c>
       <c r="F19" t="n">
-        <v>779963.1727</v>
+        <v>6667.7883</v>
       </c>
       <c r="G19" t="n">
-        <v>1.805766666666665</v>
+        <v>1.805683333333331</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1053,7 +1069,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1063,22 +1083,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.789</v>
+        <v>1.792</v>
       </c>
       <c r="C20" t="n">
         <v>1.789</v>
       </c>
       <c r="D20" t="n">
-        <v>1.789</v>
+        <v>1.792</v>
       </c>
       <c r="E20" t="n">
         <v>1.789</v>
       </c>
       <c r="F20" t="n">
-        <v>29380.3836</v>
+        <v>779963.1727</v>
       </c>
       <c r="G20" t="n">
-        <v>1.805783333333331</v>
+        <v>1.805766666666665</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1088,7 +1108,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1098,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.79</v>
+        <v>1.789</v>
       </c>
       <c r="C21" t="n">
-        <v>1.79</v>
+        <v>1.789</v>
       </c>
       <c r="D21" t="n">
-        <v>1.79</v>
+        <v>1.789</v>
       </c>
       <c r="E21" t="n">
-        <v>1.79</v>
+        <v>1.789</v>
       </c>
       <c r="F21" t="n">
-        <v>31300</v>
+        <v>29380.3836</v>
       </c>
       <c r="G21" t="n">
-        <v>1.805616666666665</v>
+        <v>1.805783333333331</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1123,7 +1147,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1133,32 +1161,38 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.788</v>
+        <v>1.79</v>
       </c>
       <c r="C22" t="n">
-        <v>1.788</v>
+        <v>1.79</v>
       </c>
       <c r="D22" t="n">
-        <v>1.788</v>
+        <v>1.79</v>
       </c>
       <c r="E22" t="n">
-        <v>1.788</v>
+        <v>1.79</v>
       </c>
       <c r="F22" t="n">
-        <v>3082.0917</v>
+        <v>31300</v>
       </c>
       <c r="G22" t="n">
-        <v>1.805683333333331</v>
+        <v>1.805616666666665</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1.789</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1180,10 +1214,10 @@
         <v>1.788</v>
       </c>
       <c r="F23" t="n">
-        <v>36473</v>
+        <v>3082.0917</v>
       </c>
       <c r="G23" t="n">
-        <v>1.805483333333331</v>
+        <v>1.805683333333331</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1193,7 +1227,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1206,29 +1244,35 @@
         <v>1.788</v>
       </c>
       <c r="C24" t="n">
-        <v>1.786</v>
+        <v>1.788</v>
       </c>
       <c r="D24" t="n">
         <v>1.788</v>
       </c>
       <c r="E24" t="n">
-        <v>1.632</v>
+        <v>1.788</v>
       </c>
       <c r="F24" t="n">
-        <v>845989.7328999999</v>
+        <v>36473</v>
       </c>
       <c r="G24" t="n">
-        <v>1.805299999999998</v>
+        <v>1.805483333333331</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1.788</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1238,22 +1282,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.75</v>
+        <v>1.788</v>
       </c>
       <c r="C25" t="n">
-        <v>1.729</v>
+        <v>1.786</v>
       </c>
       <c r="D25" t="n">
-        <v>1.75</v>
+        <v>1.788</v>
       </c>
       <c r="E25" t="n">
-        <v>1.729</v>
+        <v>1.632</v>
       </c>
       <c r="F25" t="n">
-        <v>361172.1086</v>
+        <v>845989.7328999999</v>
       </c>
       <c r="G25" t="n">
-        <v>1.803766666666665</v>
+        <v>1.805299999999998</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1263,7 +1307,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1273,32 +1321,38 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C26" t="n">
         <v>1.729</v>
       </c>
-      <c r="C26" t="n">
-        <v>1.776</v>
-      </c>
       <c r="D26" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="E26" t="n">
-        <v>1.72</v>
+        <v>1.729</v>
       </c>
       <c r="F26" t="n">
-        <v>681886.7294</v>
+        <v>361172.1086</v>
       </c>
       <c r="G26" t="n">
-        <v>1.803183333333332</v>
+        <v>1.803766666666665</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1.786</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1308,32 +1362,38 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="C27" t="n">
         <v>1.776</v>
       </c>
-      <c r="C27" t="n">
-        <v>1.782</v>
-      </c>
       <c r="D27" t="n">
-        <v>1.782</v>
+        <v>1.78</v>
       </c>
       <c r="E27" t="n">
-        <v>1.776</v>
+        <v>1.72</v>
       </c>
       <c r="F27" t="n">
-        <v>24894.2682</v>
+        <v>681886.7294</v>
       </c>
       <c r="G27" t="n">
-        <v>1.802699999999998</v>
+        <v>1.803183333333332</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1.729</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1343,32 +1403,38 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.772</v>
+        <v>1.776</v>
       </c>
       <c r="C28" t="n">
-        <v>1.772</v>
+        <v>1.782</v>
       </c>
       <c r="D28" t="n">
-        <v>1.772</v>
+        <v>1.782</v>
       </c>
       <c r="E28" t="n">
-        <v>1.772</v>
+        <v>1.776</v>
       </c>
       <c r="F28" t="n">
-        <v>32189.6869</v>
+        <v>24894.2682</v>
       </c>
       <c r="G28" t="n">
-        <v>1.802283333333332</v>
+        <v>1.802699999999998</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1.776</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1378,32 +1444,38 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.761</v>
+        <v>1.772</v>
       </c>
       <c r="C29" t="n">
-        <v>1.761</v>
+        <v>1.772</v>
       </c>
       <c r="D29" t="n">
-        <v>1.761</v>
+        <v>1.772</v>
       </c>
       <c r="E29" t="n">
-        <v>1.761</v>
+        <v>1.772</v>
       </c>
       <c r="F29" t="n">
-        <v>146261.9112</v>
+        <v>32189.6869</v>
       </c>
       <c r="G29" t="n">
-        <v>1.801866666666665</v>
+        <v>1.802283333333332</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1.782</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1413,32 +1485,38 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.777</v>
+        <v>1.761</v>
       </c>
       <c r="C30" t="n">
-        <v>1.777</v>
+        <v>1.761</v>
       </c>
       <c r="D30" t="n">
-        <v>1.777</v>
+        <v>1.761</v>
       </c>
       <c r="E30" t="n">
-        <v>1.777</v>
+        <v>1.761</v>
       </c>
       <c r="F30" t="n">
-        <v>71058.16899999999</v>
+        <v>146261.9112</v>
       </c>
       <c r="G30" t="n">
-        <v>1.801533333333332</v>
+        <v>1.801866666666665</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1.772</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1448,32 +1526,38 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.771</v>
+        <v>1.777</v>
       </c>
       <c r="C31" t="n">
-        <v>1.77</v>
+        <v>1.777</v>
       </c>
       <c r="D31" t="n">
-        <v>1.771</v>
+        <v>1.777</v>
       </c>
       <c r="E31" t="n">
-        <v>1.77</v>
+        <v>1.777</v>
       </c>
       <c r="F31" t="n">
-        <v>194147.8092</v>
+        <v>71058.16899999999</v>
       </c>
       <c r="G31" t="n">
-        <v>1.801083333333332</v>
+        <v>1.801533333333332</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1.761</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1483,22 +1567,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.777</v>
+        <v>1.771</v>
       </c>
       <c r="C32" t="n">
-        <v>1.777</v>
+        <v>1.77</v>
       </c>
       <c r="D32" t="n">
-        <v>1.777</v>
+        <v>1.771</v>
       </c>
       <c r="E32" t="n">
-        <v>1.777</v>
+        <v>1.77</v>
       </c>
       <c r="F32" t="n">
-        <v>291.0843</v>
+        <v>194147.8092</v>
       </c>
       <c r="G32" t="n">
-        <v>1.800516666666665</v>
+        <v>1.801083333333332</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1508,7 +1592,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1530,10 +1618,10 @@
         <v>1.777</v>
       </c>
       <c r="F33" t="n">
-        <v>371147.1071</v>
+        <v>291.0843</v>
       </c>
       <c r="G33" t="n">
-        <v>1.800133333333332</v>
+        <v>1.800516666666665</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1543,7 +1631,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1565,20 +1657,26 @@
         <v>1.777</v>
       </c>
       <c r="F34" t="n">
-        <v>10000</v>
+        <v>371147.1071</v>
       </c>
       <c r="G34" t="n">
-        <v>1.799749999999998</v>
+        <v>1.800133333333332</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1.777</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1591,19 +1689,19 @@
         <v>1.777</v>
       </c>
       <c r="C35" t="n">
-        <v>1.772</v>
+        <v>1.777</v>
       </c>
       <c r="D35" t="n">
         <v>1.777</v>
       </c>
       <c r="E35" t="n">
-        <v>1.762</v>
+        <v>1.777</v>
       </c>
       <c r="F35" t="n">
-        <v>2428016.6777</v>
+        <v>10000</v>
       </c>
       <c r="G35" t="n">
-        <v>1.799283333333332</v>
+        <v>1.799749999999998</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1613,7 +1711,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1623,32 +1725,38 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>1.777</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.777</v>
+      </c>
+      <c r="E36" t="n">
         <v>1.762</v>
       </c>
-      <c r="C36" t="n">
-        <v>1.787</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1.787</v>
-      </c>
-      <c r="E36" t="n">
-        <v>1.761</v>
-      </c>
       <c r="F36" t="n">
-        <v>1003246.4524</v>
+        <v>2428016.6777</v>
       </c>
       <c r="G36" t="n">
-        <v>1.799066666666665</v>
+        <v>1.799283333333332</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1.777</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1658,22 +1766,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.788</v>
+        <v>1.762</v>
       </c>
       <c r="C37" t="n">
-        <v>1.789</v>
+        <v>1.787</v>
       </c>
       <c r="D37" t="n">
-        <v>1.789</v>
+        <v>1.787</v>
       </c>
       <c r="E37" t="n">
-        <v>1.788</v>
+        <v>1.761</v>
       </c>
       <c r="F37" t="n">
-        <v>1158088.9329</v>
+        <v>1003246.4524</v>
       </c>
       <c r="G37" t="n">
-        <v>1.798883333333332</v>
+        <v>1.799066666666665</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1683,7 +1791,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1693,22 +1805,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="C38" t="n">
         <v>1.789</v>
       </c>
-      <c r="C38" t="n">
-        <v>1.79</v>
-      </c>
       <c r="D38" t="n">
-        <v>1.79</v>
+        <v>1.789</v>
       </c>
       <c r="E38" t="n">
-        <v>1.789</v>
+        <v>1.788</v>
       </c>
       <c r="F38" t="n">
-        <v>88201.0824</v>
+        <v>1158088.9329</v>
       </c>
       <c r="G38" t="n">
-        <v>1.798949999999999</v>
+        <v>1.798883333333332</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1718,7 +1830,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1731,19 +1847,19 @@
         <v>1.789</v>
       </c>
       <c r="C39" t="n">
-        <v>1.824</v>
+        <v>1.79</v>
       </c>
       <c r="D39" t="n">
-        <v>1.824</v>
+        <v>1.79</v>
       </c>
       <c r="E39" t="n">
         <v>1.789</v>
       </c>
       <c r="F39" t="n">
-        <v>693034.2845</v>
+        <v>88201.0824</v>
       </c>
       <c r="G39" t="n">
-        <v>1.799349999999999</v>
+        <v>1.798949999999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,7 +1869,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1763,7 +1883,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.824</v>
+        <v>1.789</v>
       </c>
       <c r="C40" t="n">
         <v>1.824</v>
@@ -1772,13 +1892,13 @@
         <v>1.824</v>
       </c>
       <c r="E40" t="n">
-        <v>1.824</v>
+        <v>1.789</v>
       </c>
       <c r="F40" t="n">
-        <v>55839.2338</v>
+        <v>693034.2845</v>
       </c>
       <c r="G40" t="n">
-        <v>1.799733333333332</v>
+        <v>1.799349999999999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1788,7 +1908,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1798,22 +1922,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.809</v>
+        <v>1.824</v>
       </c>
       <c r="C41" t="n">
-        <v>1.825</v>
+        <v>1.824</v>
       </c>
       <c r="D41" t="n">
-        <v>1.825</v>
+        <v>1.824</v>
       </c>
       <c r="E41" t="n">
-        <v>1.809</v>
+        <v>1.824</v>
       </c>
       <c r="F41" t="n">
-        <v>105081.985</v>
+        <v>55839.2338</v>
       </c>
       <c r="G41" t="n">
-        <v>1.800099999999999</v>
+        <v>1.799733333333332</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1823,7 +1947,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1833,22 +1961,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.826</v>
+        <v>1.809</v>
       </c>
       <c r="C42" t="n">
-        <v>1.826</v>
+        <v>1.825</v>
       </c>
       <c r="D42" t="n">
-        <v>1.826</v>
+        <v>1.825</v>
       </c>
       <c r="E42" t="n">
-        <v>1.826</v>
+        <v>1.809</v>
       </c>
       <c r="F42" t="n">
-        <v>2792.403</v>
+        <v>105081.985</v>
       </c>
       <c r="G42" t="n">
-        <v>1.800483333333332</v>
+        <v>1.800099999999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1858,7 +1986,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1868,22 +2000,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.837</v>
+        <v>1.826</v>
       </c>
       <c r="C43" t="n">
-        <v>1.837</v>
+        <v>1.826</v>
       </c>
       <c r="D43" t="n">
-        <v>1.837</v>
+        <v>1.826</v>
       </c>
       <c r="E43" t="n">
-        <v>1.837</v>
+        <v>1.826</v>
       </c>
       <c r="F43" t="n">
-        <v>51270</v>
+        <v>2792.403</v>
       </c>
       <c r="G43" t="n">
-        <v>1.801083333333332</v>
+        <v>1.800483333333332</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1893,7 +2025,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1903,22 +2039,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.847</v>
+        <v>1.837</v>
       </c>
       <c r="C44" t="n">
-        <v>1.847</v>
+        <v>1.837</v>
       </c>
       <c r="D44" t="n">
-        <v>1.847</v>
+        <v>1.837</v>
       </c>
       <c r="E44" t="n">
-        <v>1.847</v>
+        <v>1.837</v>
       </c>
       <c r="F44" t="n">
-        <v>73165.01489999999</v>
+        <v>51270</v>
       </c>
       <c r="G44" t="n">
-        <v>1.801533333333332</v>
+        <v>1.801083333333332</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1928,7 +2064,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1938,22 +2078,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.837</v>
+        <v>1.847</v>
       </c>
       <c r="C45" t="n">
-        <v>1.827</v>
+        <v>1.847</v>
       </c>
       <c r="D45" t="n">
-        <v>1.837</v>
+        <v>1.847</v>
       </c>
       <c r="E45" t="n">
-        <v>1.827</v>
+        <v>1.847</v>
       </c>
       <c r="F45" t="n">
-        <v>188593.0099</v>
+        <v>73165.01489999999</v>
       </c>
       <c r="G45" t="n">
-        <v>1.801766666666665</v>
+        <v>1.801533333333332</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1963,7 +2103,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1976,19 +2120,19 @@
         <v>1.837</v>
       </c>
       <c r="C46" t="n">
-        <v>1.837</v>
+        <v>1.827</v>
       </c>
       <c r="D46" t="n">
         <v>1.837</v>
       </c>
       <c r="E46" t="n">
-        <v>1.837</v>
+        <v>1.827</v>
       </c>
       <c r="F46" t="n">
-        <v>29287.3502</v>
+        <v>188593.0099</v>
       </c>
       <c r="G46" t="n">
-        <v>1.802166666666665</v>
+        <v>1.801766666666665</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,7 +2142,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2008,22 +2156,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.84</v>
+        <v>1.837</v>
       </c>
       <c r="C47" t="n">
-        <v>1.84</v>
+        <v>1.837</v>
       </c>
       <c r="D47" t="n">
-        <v>1.847</v>
+        <v>1.837</v>
       </c>
       <c r="E47" t="n">
-        <v>1.84</v>
+        <v>1.837</v>
       </c>
       <c r="F47" t="n">
-        <v>632022.0446</v>
+        <v>29287.3502</v>
       </c>
       <c r="G47" t="n">
-        <v>1.802499999999999</v>
+        <v>1.802166666666665</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,7 +2181,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2043,22 +2195,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.821</v>
+        <v>1.84</v>
       </c>
       <c r="C48" t="n">
-        <v>1.819</v>
+        <v>1.84</v>
       </c>
       <c r="D48" t="n">
-        <v>1.821</v>
+        <v>1.847</v>
       </c>
       <c r="E48" t="n">
-        <v>1.819</v>
+        <v>1.84</v>
       </c>
       <c r="F48" t="n">
-        <v>203843.7531</v>
+        <v>632022.0446</v>
       </c>
       <c r="G48" t="n">
-        <v>1.802599999999999</v>
+        <v>1.802499999999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2068,7 +2220,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2078,22 +2234,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.809</v>
+        <v>1.821</v>
       </c>
       <c r="C49" t="n">
-        <v>1.809</v>
+        <v>1.819</v>
       </c>
       <c r="D49" t="n">
-        <v>1.809</v>
+        <v>1.821</v>
       </c>
       <c r="E49" t="n">
-        <v>1.809</v>
+        <v>1.819</v>
       </c>
       <c r="F49" t="n">
-        <v>128656.8037</v>
+        <v>203843.7531</v>
       </c>
       <c r="G49" t="n">
-        <v>1.802533333333332</v>
+        <v>1.802599999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2103,7 +2259,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2116,19 +2276,19 @@
         <v>1.809</v>
       </c>
       <c r="C50" t="n">
-        <v>1.799</v>
+        <v>1.809</v>
       </c>
       <c r="D50" t="n">
-        <v>1.81</v>
+        <v>1.809</v>
       </c>
       <c r="E50" t="n">
-        <v>1.799</v>
+        <v>1.809</v>
       </c>
       <c r="F50" t="n">
-        <v>319071.5599</v>
+        <v>128656.8037</v>
       </c>
       <c r="G50" t="n">
-        <v>1.802299999999999</v>
+        <v>1.802533333333332</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,7 +2298,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2312,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.826</v>
+        <v>1.809</v>
       </c>
       <c r="C51" t="n">
-        <v>1.8</v>
+        <v>1.799</v>
       </c>
       <c r="D51" t="n">
-        <v>1.826</v>
+        <v>1.81</v>
       </c>
       <c r="E51" t="n">
-        <v>1.8</v>
+        <v>1.799</v>
       </c>
       <c r="F51" t="n">
-        <v>49598.5159</v>
+        <v>319071.5599</v>
       </c>
       <c r="G51" t="n">
-        <v>1.801616666666666</v>
+        <v>1.802299999999999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,7 +2337,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2183,22 +2351,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.82</v>
+        <v>1.826</v>
       </c>
       <c r="C52" t="n">
-        <v>1.754</v>
+        <v>1.8</v>
       </c>
       <c r="D52" t="n">
-        <v>1.82</v>
+        <v>1.826</v>
       </c>
       <c r="E52" t="n">
-        <v>1.754</v>
+        <v>1.8</v>
       </c>
       <c r="F52" t="n">
-        <v>784031.0109</v>
+        <v>49598.5159</v>
       </c>
       <c r="G52" t="n">
-        <v>1.800683333333332</v>
+        <v>1.801616666666666</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,7 +2376,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2390,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.785</v>
+        <v>1.82</v>
       </c>
       <c r="C53" t="n">
-        <v>1.779</v>
+        <v>1.754</v>
       </c>
       <c r="D53" t="n">
-        <v>1.785</v>
+        <v>1.82</v>
       </c>
       <c r="E53" t="n">
-        <v>1.77</v>
+        <v>1.754</v>
       </c>
       <c r="F53" t="n">
-        <v>463530.7908</v>
+        <v>784031.0109</v>
       </c>
       <c r="G53" t="n">
-        <v>1.800333333333332</v>
+        <v>1.800683333333332</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,7 +2415,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2429,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.805</v>
+        <v>1.785</v>
       </c>
       <c r="C54" t="n">
-        <v>1.826</v>
+        <v>1.779</v>
       </c>
       <c r="D54" t="n">
-        <v>1.826</v>
+        <v>1.785</v>
       </c>
       <c r="E54" t="n">
-        <v>1.805</v>
+        <v>1.77</v>
       </c>
       <c r="F54" t="n">
-        <v>190975.4012</v>
+        <v>463530.7908</v>
       </c>
       <c r="G54" t="n">
-        <v>1.800766666666666</v>
+        <v>1.800333333333332</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,7 +2454,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,22 +2468,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.83</v>
+        <v>1.805</v>
       </c>
       <c r="C55" t="n">
-        <v>1.83</v>
+        <v>1.826</v>
       </c>
       <c r="D55" t="n">
-        <v>1.83</v>
+        <v>1.826</v>
       </c>
       <c r="E55" t="n">
-        <v>1.83</v>
+        <v>1.805</v>
       </c>
       <c r="F55" t="n">
-        <v>23452.0747</v>
+        <v>190975.4012</v>
       </c>
       <c r="G55" t="n">
-        <v>1.801099999999999</v>
+        <v>1.800766666666666</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,7 +2493,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,22 +2507,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="C56" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="D56" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="E56" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="F56" t="n">
-        <v>61138.0334</v>
+        <v>23452.0747</v>
       </c>
       <c r="G56" t="n">
-        <v>1.800933333333332</v>
+        <v>1.801099999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,7 +2532,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2370,10 +2558,10 @@
         <v>1.8</v>
       </c>
       <c r="F57" t="n">
-        <v>364006.0654</v>
+        <v>61138.0334</v>
       </c>
       <c r="G57" t="n">
-        <v>1.800766666666665</v>
+        <v>1.800933333333332</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,7 +2571,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2405,7 +2597,7 @@
         <v>1.8</v>
       </c>
       <c r="F58" t="n">
-        <v>8270</v>
+        <v>364006.0654</v>
       </c>
       <c r="G58" t="n">
         <v>1.800766666666665</v>
@@ -2418,7 +2610,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,22 +2624,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.795</v>
+        <v>1.8</v>
       </c>
       <c r="C59" t="n">
-        <v>1.795</v>
+        <v>1.8</v>
       </c>
       <c r="D59" t="n">
-        <v>1.795</v>
+        <v>1.8</v>
       </c>
       <c r="E59" t="n">
-        <v>1.795</v>
+        <v>1.8</v>
       </c>
       <c r="F59" t="n">
-        <v>609249.2178</v>
+        <v>8270</v>
       </c>
       <c r="G59" t="n">
-        <v>1.800683333333332</v>
+        <v>1.800766666666665</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,7 +2649,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2475,10 +2675,10 @@
         <v>1.795</v>
       </c>
       <c r="F60" t="n">
-        <v>5278.1983</v>
+        <v>609249.2178</v>
       </c>
       <c r="G60" t="n">
-        <v>1.800599999999999</v>
+        <v>1.800683333333332</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,7 +2688,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,22 +2702,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.819</v>
+        <v>1.795</v>
       </c>
       <c r="C61" t="n">
-        <v>1.83</v>
+        <v>1.795</v>
       </c>
       <c r="D61" t="n">
-        <v>1.85</v>
+        <v>1.795</v>
       </c>
       <c r="E61" t="n">
-        <v>1.819</v>
+        <v>1.795</v>
       </c>
       <c r="F61" t="n">
-        <v>3112666.0109</v>
+        <v>5278.1983</v>
       </c>
       <c r="G61" t="n">
-        <v>1.800933333333332</v>
+        <v>1.800599999999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,7 +2727,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,22 +2741,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.84</v>
+        <v>1.819</v>
       </c>
       <c r="C62" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="D62" t="n">
         <v>1.85</v>
       </c>
       <c r="E62" t="n">
-        <v>1.83</v>
+        <v>1.819</v>
       </c>
       <c r="F62" t="n">
-        <v>570393.9702</v>
+        <v>3112666.0109</v>
       </c>
       <c r="G62" t="n">
-        <v>1.801433333333332</v>
+        <v>1.800933333333332</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,7 +2766,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2571,19 +2783,19 @@
         <v>1.84</v>
       </c>
       <c r="C63" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="D63" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="E63" t="n">
         <v>1.83</v>
       </c>
       <c r="F63" t="n">
-        <v>257339.0101</v>
+        <v>570393.9702</v>
       </c>
       <c r="G63" t="n">
-        <v>1.801599999999999</v>
+        <v>1.801433333333332</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,7 +2805,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,22 +2819,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="C64" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="D64" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="E64" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="F64" t="n">
-        <v>12666.0109</v>
+        <v>257339.0101</v>
       </c>
       <c r="G64" t="n">
-        <v>1.801649999999999</v>
+        <v>1.801599999999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,7 +2844,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2858,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="C65" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="D65" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="E65" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="F65" t="n">
-        <v>26473.3051</v>
+        <v>12666.0109</v>
       </c>
       <c r="G65" t="n">
-        <v>1.801866666666666</v>
+        <v>1.801649999999999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,7 +2883,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2673,22 +2897,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="C66" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="D66" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="E66" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="F66" t="n">
-        <v>267</v>
+        <v>26473.3051</v>
       </c>
       <c r="G66" t="n">
-        <v>1.802433333333332</v>
+        <v>1.801866666666666</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,7 +2922,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2936,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="C67" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="D67" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="E67" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="F67" t="n">
-        <v>93346.64109999999</v>
+        <v>267</v>
       </c>
       <c r="G67" t="n">
-        <v>1.802833333333332</v>
+        <v>1.802433333333332</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,7 +2961,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2755,10 +2987,10 @@
         <v>1.83</v>
       </c>
       <c r="F68" t="n">
-        <v>68673.72319999999</v>
+        <v>93346.64109999999</v>
       </c>
       <c r="G68" t="n">
-        <v>1.803349999999999</v>
+        <v>1.802833333333332</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2768,7 +3000,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +3014,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="C69" t="n">
-        <v>1.813</v>
+        <v>1.83</v>
       </c>
       <c r="D69" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="E69" t="n">
-        <v>1.813</v>
+        <v>1.83</v>
       </c>
       <c r="F69" t="n">
-        <v>72436.72440000001</v>
+        <v>68673.72319999999</v>
       </c>
       <c r="G69" t="n">
-        <v>1.802233333333332</v>
+        <v>1.803349999999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2803,7 +3039,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2813,22 +3053,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.813</v>
+        <v>1.82</v>
       </c>
       <c r="C70" t="n">
         <v>1.813</v>
       </c>
       <c r="D70" t="n">
-        <v>1.813</v>
+        <v>1.82</v>
       </c>
       <c r="E70" t="n">
         <v>1.813</v>
       </c>
       <c r="F70" t="n">
-        <v>16038.3238</v>
+        <v>72436.72440000001</v>
       </c>
       <c r="G70" t="n">
-        <v>1.802516666666666</v>
+        <v>1.802233333333332</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2838,7 +3078,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2848,22 +3092,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.823</v>
+        <v>1.813</v>
       </c>
       <c r="C71" t="n">
-        <v>1.81</v>
+        <v>1.813</v>
       </c>
       <c r="D71" t="n">
-        <v>1.823</v>
+        <v>1.813</v>
       </c>
       <c r="E71" t="n">
-        <v>1.81</v>
+        <v>1.813</v>
       </c>
       <c r="F71" t="n">
-        <v>87500.12420000001</v>
+        <v>16038.3238</v>
       </c>
       <c r="G71" t="n">
-        <v>1.802716666666666</v>
+        <v>1.802516666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2873,7 +3117,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2883,22 +3131,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.83</v>
+        <v>1.823</v>
       </c>
       <c r="C72" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="D72" t="n">
-        <v>1.83</v>
+        <v>1.823</v>
       </c>
       <c r="E72" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="F72" t="n">
-        <v>192627.6112</v>
+        <v>87500.12420000001</v>
       </c>
       <c r="G72" t="n">
-        <v>1.803049999999999</v>
+        <v>1.802716666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2908,7 +3156,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2918,22 +3170,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.824</v>
+        <v>1.83</v>
       </c>
       <c r="C73" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="D73" t="n">
-        <v>1.824</v>
+        <v>1.83</v>
       </c>
       <c r="E73" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="F73" t="n">
-        <v>187104.8817</v>
+        <v>192627.6112</v>
       </c>
       <c r="G73" t="n">
-        <v>1.803433333333332</v>
+        <v>1.803049999999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2943,7 +3195,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2956,19 +3212,19 @@
         <v>1.824</v>
       </c>
       <c r="C74" t="n">
-        <v>1.824</v>
+        <v>1.82</v>
       </c>
       <c r="D74" t="n">
         <v>1.824</v>
       </c>
       <c r="E74" t="n">
-        <v>1.824</v>
+        <v>1.82</v>
       </c>
       <c r="F74" t="n">
-        <v>6000</v>
+        <v>187104.8817</v>
       </c>
       <c r="G74" t="n">
-        <v>1.803833333333332</v>
+        <v>1.803433333333332</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2978,7 +3234,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2991,19 +3251,19 @@
         <v>1.824</v>
       </c>
       <c r="C75" t="n">
-        <v>1.83</v>
+        <v>1.824</v>
       </c>
       <c r="D75" t="n">
-        <v>1.83</v>
+        <v>1.824</v>
       </c>
       <c r="E75" t="n">
-        <v>1.81</v>
+        <v>1.824</v>
       </c>
       <c r="F75" t="n">
-        <v>10387.2591</v>
+        <v>6000</v>
       </c>
       <c r="G75" t="n">
-        <v>1.804399999999999</v>
+        <v>1.803833333333332</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3013,7 +3273,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3023,22 +3287,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.81</v>
+        <v>1.824</v>
       </c>
       <c r="C76" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="D76" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="E76" t="n">
         <v>1.81</v>
       </c>
       <c r="F76" t="n">
-        <v>132629.1793</v>
+        <v>10387.2591</v>
       </c>
       <c r="G76" t="n">
-        <v>1.804783333333332</v>
+        <v>1.804399999999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3048,7 +3312,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3058,22 +3326,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="C77" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="D77" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="E77" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="F77" t="n">
-        <v>5291.0492</v>
+        <v>132629.1793</v>
       </c>
       <c r="G77" t="n">
-        <v>1.805049999999998</v>
+        <v>1.804783333333332</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3083,7 +3351,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3093,22 +3365,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="C78" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="D78" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="E78" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="F78" t="n">
-        <v>944749.1411</v>
+        <v>5291.0492</v>
       </c>
       <c r="G78" t="n">
-        <v>1.805483333333332</v>
+        <v>1.805049999999998</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3118,7 +3390,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3128,22 +3404,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.844</v>
+        <v>1.84</v>
       </c>
       <c r="C79" t="n">
-        <v>1.844</v>
+        <v>1.84</v>
       </c>
       <c r="D79" t="n">
-        <v>1.844</v>
+        <v>1.84</v>
       </c>
       <c r="E79" t="n">
-        <v>1.844</v>
+        <v>1.84</v>
       </c>
       <c r="F79" t="n">
-        <v>9746.558000000001</v>
+        <v>944749.1411</v>
       </c>
       <c r="G79" t="n">
-        <v>1.806399999999999</v>
+        <v>1.805483333333332</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3153,7 +3429,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3163,22 +3443,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.845</v>
+        <v>1.844</v>
       </c>
       <c r="C80" t="n">
-        <v>1.845</v>
+        <v>1.844</v>
       </c>
       <c r="D80" t="n">
-        <v>1.845</v>
+        <v>1.844</v>
       </c>
       <c r="E80" t="n">
-        <v>1.845</v>
+        <v>1.844</v>
       </c>
       <c r="F80" t="n">
-        <v>55747.3871</v>
+        <v>9746.558000000001</v>
       </c>
       <c r="G80" t="n">
-        <v>1.807333333333332</v>
+        <v>1.806399999999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3188,7 +3468,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3210,10 +3494,10 @@
         <v>1.845</v>
       </c>
       <c r="F81" t="n">
-        <v>400319.3852</v>
+        <v>55747.3871</v>
       </c>
       <c r="G81" t="n">
-        <v>1.808249999999998</v>
+        <v>1.807333333333332</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3223,7 +3507,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3233,22 +3521,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.848</v>
+        <v>1.845</v>
       </c>
       <c r="C82" t="n">
-        <v>1.866</v>
+        <v>1.845</v>
       </c>
       <c r="D82" t="n">
-        <v>1.866</v>
+        <v>1.845</v>
       </c>
       <c r="E82" t="n">
-        <v>1.848</v>
+        <v>1.845</v>
       </c>
       <c r="F82" t="n">
-        <v>929891.7639</v>
+        <v>400319.3852</v>
       </c>
       <c r="G82" t="n">
-        <v>1.809549999999998</v>
+        <v>1.808249999999998</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3258,7 +3546,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3268,22 +3560,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.867</v>
+        <v>1.848</v>
       </c>
       <c r="C83" t="n">
-        <v>1.868</v>
+        <v>1.866</v>
       </c>
       <c r="D83" t="n">
-        <v>1.868</v>
+        <v>1.866</v>
       </c>
       <c r="E83" t="n">
-        <v>1.867</v>
+        <v>1.848</v>
       </c>
       <c r="F83" t="n">
-        <v>52770.9366</v>
+        <v>929891.7639</v>
       </c>
       <c r="G83" t="n">
-        <v>1.810883333333332</v>
+        <v>1.809549999999998</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3293,7 +3585,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,22 +3599,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.86</v>
+        <v>1.867</v>
       </c>
       <c r="C84" t="n">
-        <v>1.86</v>
+        <v>1.868</v>
       </c>
       <c r="D84" t="n">
-        <v>1.86</v>
+        <v>1.868</v>
       </c>
       <c r="E84" t="n">
-        <v>1.86</v>
+        <v>1.867</v>
       </c>
       <c r="F84" t="n">
-        <v>1331965</v>
+        <v>52770.9366</v>
       </c>
       <c r="G84" t="n">
-        <v>1.812116666666665</v>
+        <v>1.810883333333332</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3328,7 +3624,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3638,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.861</v>
+        <v>1.86</v>
       </c>
       <c r="C85" t="n">
-        <v>1.861</v>
+        <v>1.86</v>
       </c>
       <c r="D85" t="n">
-        <v>1.861</v>
+        <v>1.86</v>
       </c>
       <c r="E85" t="n">
-        <v>1.861</v>
+        <v>1.86</v>
       </c>
       <c r="F85" t="n">
-        <v>14750.8641</v>
+        <v>1331965</v>
       </c>
       <c r="G85" t="n">
-        <v>1.814316666666665</v>
+        <v>1.812116666666665</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3363,7 +3663,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3373,22 +3677,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.86</v>
+        <v>1.861</v>
       </c>
       <c r="C86" t="n">
-        <v>1.86</v>
+        <v>1.861</v>
       </c>
       <c r="D86" t="n">
-        <v>1.86</v>
+        <v>1.861</v>
       </c>
       <c r="E86" t="n">
-        <v>1.86</v>
+        <v>1.861</v>
       </c>
       <c r="F86" t="n">
-        <v>400319.3852</v>
+        <v>14750.8641</v>
       </c>
       <c r="G86" t="n">
-        <v>1.815716666666665</v>
+        <v>1.814316666666665</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3398,7 +3702,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3420,10 +3728,10 @@
         <v>1.86</v>
       </c>
       <c r="F87" t="n">
-        <v>458755.6455</v>
+        <v>400319.3852</v>
       </c>
       <c r="G87" t="n">
-        <v>1.817016666666665</v>
+        <v>1.815716666666665</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3433,7 +3741,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3455,10 +3767,10 @@
         <v>1.86</v>
       </c>
       <c r="F88" t="n">
-        <v>46815.5756</v>
+        <v>458755.6455</v>
       </c>
       <c r="G88" t="n">
-        <v>1.818483333333332</v>
+        <v>1.817016666666665</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3468,7 +3780,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3478,22 +3794,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.855</v>
+        <v>1.86</v>
       </c>
       <c r="C89" t="n">
-        <v>1.855</v>
+        <v>1.86</v>
       </c>
       <c r="D89" t="n">
-        <v>1.855</v>
+        <v>1.86</v>
       </c>
       <c r="E89" t="n">
-        <v>1.855</v>
+        <v>1.86</v>
       </c>
       <c r="F89" t="n">
-        <v>56000</v>
+        <v>46815.5756</v>
       </c>
       <c r="G89" t="n">
-        <v>1.820049999999999</v>
+        <v>1.818483333333332</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3503,7 +3819,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3513,22 +3833,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.87</v>
+        <v>1.855</v>
       </c>
       <c r="C90" t="n">
-        <v>1.87</v>
+        <v>1.855</v>
       </c>
       <c r="D90" t="n">
-        <v>1.87</v>
+        <v>1.855</v>
       </c>
       <c r="E90" t="n">
-        <v>1.87</v>
+        <v>1.855</v>
       </c>
       <c r="F90" t="n">
-        <v>373398.0609</v>
+        <v>56000</v>
       </c>
       <c r="G90" t="n">
-        <v>1.821599999999999</v>
+        <v>1.820049999999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3538,7 +3858,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3548,22 +3872,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="C91" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="D91" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="E91" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="F91" t="n">
-        <v>10780.6417</v>
+        <v>373398.0609</v>
       </c>
       <c r="G91" t="n">
-        <v>1.823099999999999</v>
+        <v>1.821599999999999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3573,7 +3897,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3595,10 +3923,10 @@
         <v>1.86</v>
       </c>
       <c r="F92" t="n">
-        <v>386.4029</v>
+        <v>10780.6417</v>
       </c>
       <c r="G92" t="n">
-        <v>1.824483333333332</v>
+        <v>1.823099999999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3608,7 +3936,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3630,10 +3962,10 @@
         <v>1.86</v>
       </c>
       <c r="F93" t="n">
-        <v>14918.0015</v>
+        <v>386.4029</v>
       </c>
       <c r="G93" t="n">
-        <v>1.825866666666665</v>
+        <v>1.824483333333332</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3643,7 +3975,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3653,22 +3989,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="C94" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="D94" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="E94" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="F94" t="n">
-        <v>218480</v>
+        <v>14918.0015</v>
       </c>
       <c r="G94" t="n">
-        <v>1.827416666666665</v>
+        <v>1.825866666666665</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3678,7 +4014,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3688,22 +4028,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="C95" t="n">
-        <v>1.885</v>
+        <v>1.87</v>
       </c>
       <c r="D95" t="n">
-        <v>1.885</v>
+        <v>1.87</v>
       </c>
       <c r="E95" t="n">
-        <v>1.877</v>
+        <v>1.87</v>
       </c>
       <c r="F95" t="n">
-        <v>313374.0255</v>
+        <v>218480</v>
       </c>
       <c r="G95" t="n">
-        <v>1.829299999999999</v>
+        <v>1.827416666666665</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3713,7 +4053,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3723,22 +4067,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.889</v>
+        <v>1.88</v>
       </c>
       <c r="C96" t="n">
-        <v>1.889</v>
+        <v>1.885</v>
       </c>
       <c r="D96" t="n">
-        <v>1.889</v>
+        <v>1.885</v>
       </c>
       <c r="E96" t="n">
-        <v>1.889</v>
+        <v>1.877</v>
       </c>
       <c r="F96" t="n">
-        <v>12247.4216</v>
+        <v>313374.0255</v>
       </c>
       <c r="G96" t="n">
-        <v>1.830999999999999</v>
+        <v>1.829299999999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3748,7 +4092,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3758,22 +4106,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.894</v>
+        <v>1.889</v>
       </c>
       <c r="C97" t="n">
-        <v>1.894</v>
+        <v>1.889</v>
       </c>
       <c r="D97" t="n">
-        <v>1.894</v>
+        <v>1.889</v>
       </c>
       <c r="E97" t="n">
-        <v>1.894</v>
+        <v>1.889</v>
       </c>
       <c r="F97" t="n">
-        <v>49782.3033</v>
+        <v>12247.4216</v>
       </c>
       <c r="G97" t="n">
-        <v>1.832749999999999</v>
+        <v>1.830999999999999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3783,7 +4131,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3793,22 +4145,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.895</v>
+        <v>1.894</v>
       </c>
       <c r="C98" t="n">
-        <v>1.877</v>
+        <v>1.894</v>
       </c>
       <c r="D98" t="n">
-        <v>1.895</v>
+        <v>1.894</v>
       </c>
       <c r="E98" t="n">
-        <v>1.877</v>
+        <v>1.894</v>
       </c>
       <c r="F98" t="n">
-        <v>47616.1128</v>
+        <v>49782.3033</v>
       </c>
       <c r="G98" t="n">
-        <v>1.834199999999998</v>
+        <v>1.832749999999999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3818,7 +4170,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3828,22 +4184,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.88</v>
+        <v>1.895</v>
       </c>
       <c r="C99" t="n">
-        <v>1.889</v>
+        <v>1.877</v>
       </c>
       <c r="D99" t="n">
-        <v>1.889</v>
+        <v>1.895</v>
       </c>
       <c r="E99" t="n">
         <v>1.877</v>
       </c>
       <c r="F99" t="n">
-        <v>49089.0358</v>
+        <v>47616.1128</v>
       </c>
       <c r="G99" t="n">
-        <v>1.835283333333332</v>
+        <v>1.834199999999998</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3853,7 +4209,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3872,13 +4232,13 @@
         <v>1.889</v>
       </c>
       <c r="E100" t="n">
-        <v>1.88</v>
+        <v>1.877</v>
       </c>
       <c r="F100" t="n">
-        <v>83392.2754</v>
+        <v>49089.0358</v>
       </c>
       <c r="G100" t="n">
-        <v>1.836366666666665</v>
+        <v>1.835283333333332</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3888,7 +4248,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3901,19 +4265,19 @@
         <v>1.88</v>
       </c>
       <c r="C101" t="n">
-        <v>1.899</v>
+        <v>1.889</v>
       </c>
       <c r="D101" t="n">
-        <v>1.899</v>
+        <v>1.889</v>
       </c>
       <c r="E101" t="n">
         <v>1.88</v>
       </c>
       <c r="F101" t="n">
-        <v>109414.5092</v>
+        <v>83392.2754</v>
       </c>
       <c r="G101" t="n">
-        <v>1.837599999999998</v>
+        <v>1.836366666666665</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3923,7 +4287,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3933,22 +4301,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="C102" t="n">
-        <v>1.91</v>
+        <v>1.899</v>
       </c>
       <c r="D102" t="n">
-        <v>1.91</v>
+        <v>1.899</v>
       </c>
       <c r="E102" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="F102" t="n">
-        <v>25302.6505</v>
+        <v>109414.5092</v>
       </c>
       <c r="G102" t="n">
-        <v>1.838999999999998</v>
+        <v>1.837599999999998</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3958,7 +4326,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3968,22 +4340,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.919</v>
+        <v>1.91</v>
       </c>
       <c r="C103" t="n">
-        <v>1.944</v>
+        <v>1.91</v>
       </c>
       <c r="D103" t="n">
-        <v>1.944</v>
+        <v>1.91</v>
       </c>
       <c r="E103" t="n">
-        <v>1.919</v>
+        <v>1.91</v>
       </c>
       <c r="F103" t="n">
-        <v>1082678.2233</v>
+        <v>25302.6505</v>
       </c>
       <c r="G103" t="n">
-        <v>1.840783333333332</v>
+        <v>1.838999999999998</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3993,7 +4365,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4003,7 +4379,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.909</v>
+        <v>1.919</v>
       </c>
       <c r="C104" t="n">
         <v>1.944</v>
@@ -4012,13 +4388,13 @@
         <v>1.944</v>
       </c>
       <c r="E104" t="n">
-        <v>1.89</v>
+        <v>1.919</v>
       </c>
       <c r="F104" t="n">
-        <v>178566.4798</v>
+        <v>1082678.2233</v>
       </c>
       <c r="G104" t="n">
-        <v>1.842399999999998</v>
+        <v>1.840783333333332</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4028,7 +4404,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4038,22 +4418,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.912</v>
+        <v>1.909</v>
       </c>
       <c r="C105" t="n">
-        <v>1.912</v>
+        <v>1.944</v>
       </c>
       <c r="D105" t="n">
-        <v>1.912</v>
+        <v>1.944</v>
       </c>
       <c r="E105" t="n">
-        <v>1.912</v>
+        <v>1.89</v>
       </c>
       <c r="F105" t="n">
-        <v>20438.4255</v>
+        <v>178566.4798</v>
       </c>
       <c r="G105" t="n">
-        <v>1.843816666666665</v>
+        <v>1.842399999999998</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4063,32 +4443,34 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.911</v>
+        <v>1.912</v>
       </c>
       <c r="C106" t="n">
-        <v>1.901</v>
+        <v>1.912</v>
       </c>
       <c r="D106" t="n">
-        <v>1.911</v>
+        <v>1.912</v>
       </c>
       <c r="E106" t="n">
-        <v>1.901</v>
+        <v>1.912</v>
       </c>
       <c r="F106" t="n">
-        <v>1304119.675</v>
+        <v>20438.4255</v>
       </c>
       <c r="G106" t="n">
-        <v>1.844883333333332</v>
+        <v>1.843816666666665</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,28 +4490,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.9</v>
+        <v>1.911</v>
       </c>
       <c r="C107" t="n">
-        <v>1.891</v>
+        <v>1.901</v>
       </c>
       <c r="D107" t="n">
-        <v>1.9</v>
+        <v>1.911</v>
       </c>
       <c r="E107" t="n">
-        <v>1.887</v>
+        <v>1.901</v>
       </c>
       <c r="F107" t="n">
-        <v>394813.4195</v>
+        <v>1304119.675</v>
       </c>
       <c r="G107" t="n">
-        <v>1.845733333333332</v>
+        <v>1.844883333333332</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4143,22 +4525,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.891</v>
+        <v>1.9</v>
       </c>
       <c r="C108" t="n">
         <v>1.891</v>
       </c>
       <c r="D108" t="n">
-        <v>1.891</v>
+        <v>1.9</v>
       </c>
       <c r="E108" t="n">
-        <v>1.891</v>
+        <v>1.887</v>
       </c>
       <c r="F108" t="n">
-        <v>30220</v>
+        <v>394813.4195</v>
       </c>
       <c r="G108" t="n">
-        <v>1.846933333333332</v>
+        <v>1.845733333333332</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4193,7 +4575,7 @@
         <v>30220</v>
       </c>
       <c r="G109" t="n">
-        <v>1.848299999999999</v>
+        <v>1.846933333333332</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4595,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.909</v>
+        <v>1.891</v>
       </c>
       <c r="C110" t="n">
-        <v>1.909</v>
+        <v>1.891</v>
       </c>
       <c r="D110" t="n">
-        <v>1.909</v>
+        <v>1.891</v>
       </c>
       <c r="E110" t="n">
-        <v>1.909</v>
+        <v>1.891</v>
       </c>
       <c r="F110" t="n">
-        <v>259</v>
+        <v>30220</v>
       </c>
       <c r="G110" t="n">
-        <v>1.850133333333332</v>
+        <v>1.848299999999999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4630,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.898</v>
+        <v>1.909</v>
       </c>
       <c r="C111" t="n">
-        <v>1.898</v>
+        <v>1.909</v>
       </c>
       <c r="D111" t="n">
-        <v>1.898</v>
+        <v>1.909</v>
       </c>
       <c r="E111" t="n">
-        <v>1.898</v>
+        <v>1.909</v>
       </c>
       <c r="F111" t="n">
-        <v>1337.9718</v>
+        <v>259</v>
       </c>
       <c r="G111" t="n">
-        <v>1.851766666666665</v>
+        <v>1.850133333333332</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4665,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.9</v>
+        <v>1.898</v>
       </c>
       <c r="C112" t="n">
-        <v>1.9</v>
+        <v>1.898</v>
       </c>
       <c r="D112" t="n">
-        <v>1.9</v>
+        <v>1.898</v>
       </c>
       <c r="E112" t="n">
-        <v>1.9</v>
+        <v>1.898</v>
       </c>
       <c r="F112" t="n">
-        <v>50999.5453</v>
+        <v>1337.9718</v>
       </c>
       <c r="G112" t="n">
-        <v>1.854199999999999</v>
+        <v>1.851766666666665</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4321,19 +4703,19 @@
         <v>1.9</v>
       </c>
       <c r="C113" t="n">
-        <v>1.898</v>
+        <v>1.9</v>
       </c>
       <c r="D113" t="n">
         <v>1.9</v>
       </c>
       <c r="E113" t="n">
-        <v>1.898</v>
+        <v>1.9</v>
       </c>
       <c r="F113" t="n">
-        <v>103610.6758</v>
+        <v>50999.5453</v>
       </c>
       <c r="G113" t="n">
-        <v>1.856183333333332</v>
+        <v>1.854199999999999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4735,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C114" t="n">
         <v>1.898</v>
       </c>
-      <c r="C114" t="n">
-        <v>1.906</v>
-      </c>
       <c r="D114" t="n">
-        <v>1.906</v>
+        <v>1.9</v>
       </c>
       <c r="E114" t="n">
         <v>1.898</v>
       </c>
       <c r="F114" t="n">
-        <v>1496.9307</v>
+        <v>103610.6758</v>
       </c>
       <c r="G114" t="n">
-        <v>1.857516666666666</v>
+        <v>1.856183333333332</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4770,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="C115" t="n">
         <v>1.906</v>
       </c>
-      <c r="C115" t="n">
-        <v>1.909</v>
-      </c>
       <c r="D115" t="n">
-        <v>1.909</v>
+        <v>1.906</v>
       </c>
       <c r="E115" t="n">
-        <v>1.899</v>
+        <v>1.898</v>
       </c>
       <c r="F115" t="n">
-        <v>1186568.6307</v>
+        <v>1496.9307</v>
       </c>
       <c r="G115" t="n">
-        <v>1.858833333333332</v>
+        <v>1.857516666666666</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4805,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.898</v>
+        <v>1.906</v>
       </c>
       <c r="C116" t="n">
-        <v>1.898</v>
+        <v>1.909</v>
       </c>
       <c r="D116" t="n">
-        <v>1.898</v>
+        <v>1.909</v>
       </c>
       <c r="E116" t="n">
-        <v>1.898</v>
+        <v>1.899</v>
       </c>
       <c r="F116" t="n">
-        <v>35502.1859</v>
+        <v>1186568.6307</v>
       </c>
       <c r="G116" t="n">
-        <v>1.860466666666666</v>
+        <v>1.858833333333332</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4840,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.899</v>
+        <v>1.898</v>
       </c>
       <c r="C117" t="n">
-        <v>1.899</v>
+        <v>1.898</v>
       </c>
       <c r="D117" t="n">
-        <v>1.899</v>
+        <v>1.898</v>
       </c>
       <c r="E117" t="n">
-        <v>1.899</v>
+        <v>1.898</v>
       </c>
       <c r="F117" t="n">
-        <v>30280</v>
+        <v>35502.1859</v>
       </c>
       <c r="G117" t="n">
-        <v>1.862116666666666</v>
+        <v>1.860466666666666</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4505,10 +4887,10 @@
         <v>1.899</v>
       </c>
       <c r="F118" t="n">
-        <v>27778</v>
+        <v>30280</v>
       </c>
       <c r="G118" t="n">
-        <v>1.863766666666666</v>
+        <v>1.862116666666666</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4910,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.9</v>
+        <v>1.899</v>
       </c>
       <c r="C119" t="n">
-        <v>1.9</v>
+        <v>1.899</v>
       </c>
       <c r="D119" t="n">
-        <v>1.9</v>
+        <v>1.899</v>
       </c>
       <c r="E119" t="n">
-        <v>1.9</v>
+        <v>1.899</v>
       </c>
       <c r="F119" t="n">
-        <v>100000</v>
+        <v>27778</v>
       </c>
       <c r="G119" t="n">
-        <v>1.865516666666666</v>
+        <v>1.863766666666666</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4945,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.909</v>
+        <v>1.9</v>
       </c>
       <c r="C120" t="n">
-        <v>1.909</v>
+        <v>1.9</v>
       </c>
       <c r="D120" t="n">
-        <v>1.909</v>
+        <v>1.9</v>
       </c>
       <c r="E120" t="n">
-        <v>1.909</v>
+        <v>1.9</v>
       </c>
       <c r="F120" t="n">
-        <v>452634.4536</v>
+        <v>100000</v>
       </c>
       <c r="G120" t="n">
-        <v>1.867416666666666</v>
+        <v>1.865516666666666</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4980,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.901</v>
+        <v>1.909</v>
       </c>
       <c r="C121" t="n">
-        <v>1.901</v>
+        <v>1.909</v>
       </c>
       <c r="D121" t="n">
-        <v>1.901</v>
+        <v>1.909</v>
       </c>
       <c r="E121" t="n">
-        <v>1.901</v>
+        <v>1.909</v>
       </c>
       <c r="F121" t="n">
-        <v>4578.3657</v>
+        <v>452634.4536</v>
       </c>
       <c r="G121" t="n">
-        <v>1.868599999999999</v>
+        <v>1.867416666666666</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +5015,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.899</v>
+        <v>1.901</v>
       </c>
       <c r="C122" t="n">
-        <v>1.889</v>
+        <v>1.901</v>
       </c>
       <c r="D122" t="n">
-        <v>1.899</v>
+        <v>1.901</v>
       </c>
       <c r="E122" t="n">
-        <v>1.889</v>
+        <v>1.901</v>
       </c>
       <c r="F122" t="n">
-        <v>58411.7675</v>
+        <v>4578.3657</v>
       </c>
       <c r="G122" t="n">
-        <v>1.869416666666666</v>
+        <v>1.868599999999999</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +5050,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.888</v>
+        <v>1.899</v>
       </c>
       <c r="C123" t="n">
-        <v>1.887</v>
+        <v>1.889</v>
       </c>
       <c r="D123" t="n">
-        <v>1.888</v>
+        <v>1.899</v>
       </c>
       <c r="E123" t="n">
-        <v>1.887</v>
+        <v>1.889</v>
       </c>
       <c r="F123" t="n">
-        <v>41695.205</v>
+        <v>58411.7675</v>
       </c>
       <c r="G123" t="n">
-        <v>1.870366666666666</v>
+        <v>1.869416666666666</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +5085,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.891</v>
+        <v>1.888</v>
       </c>
       <c r="C124" t="n">
-        <v>1.891</v>
+        <v>1.887</v>
       </c>
       <c r="D124" t="n">
-        <v>1.891</v>
+        <v>1.888</v>
       </c>
       <c r="E124" t="n">
-        <v>1.891</v>
+        <v>1.887</v>
       </c>
       <c r="F124" t="n">
-        <v>395160.078</v>
+        <v>41695.205</v>
       </c>
       <c r="G124" t="n">
-        <v>1.871549999999999</v>
+        <v>1.870366666666666</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +5120,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.899</v>
+        <v>1.891</v>
       </c>
       <c r="C125" t="n">
-        <v>1.902</v>
+        <v>1.891</v>
       </c>
       <c r="D125" t="n">
-        <v>1.902</v>
+        <v>1.891</v>
       </c>
       <c r="E125" t="n">
-        <v>1.899</v>
+        <v>1.891</v>
       </c>
       <c r="F125" t="n">
-        <v>359860</v>
+        <v>395160.078</v>
       </c>
       <c r="G125" t="n">
-        <v>1.872749999999999</v>
+        <v>1.871549999999999</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +5155,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.887</v>
+        <v>1.899</v>
       </c>
       <c r="C126" t="n">
-        <v>1.887</v>
+        <v>1.902</v>
       </c>
       <c r="D126" t="n">
-        <v>1.887</v>
+        <v>1.902</v>
       </c>
       <c r="E126" t="n">
-        <v>1.887</v>
+        <v>1.899</v>
       </c>
       <c r="F126" t="n">
-        <v>29017.3404</v>
+        <v>359860</v>
       </c>
       <c r="G126" t="n">
-        <v>1.873533333333333</v>
+        <v>1.872749999999999</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +5190,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.891</v>
+        <v>1.887</v>
       </c>
       <c r="C127" t="n">
-        <v>1.891</v>
+        <v>1.887</v>
       </c>
       <c r="D127" t="n">
-        <v>1.891</v>
+        <v>1.887</v>
       </c>
       <c r="E127" t="n">
-        <v>1.891</v>
+        <v>1.887</v>
       </c>
       <c r="F127" t="n">
-        <v>1170.43</v>
+        <v>29017.3404</v>
       </c>
       <c r="G127" t="n">
-        <v>1.874549999999999</v>
+        <v>1.873533333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +5225,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.899</v>
+        <v>1.891</v>
       </c>
       <c r="C128" t="n">
-        <v>1.899</v>
+        <v>1.891</v>
       </c>
       <c r="D128" t="n">
-        <v>1.899</v>
+        <v>1.891</v>
       </c>
       <c r="E128" t="n">
-        <v>1.899</v>
+        <v>1.891</v>
       </c>
       <c r="F128" t="n">
-        <v>59060</v>
+        <v>1170.43</v>
       </c>
       <c r="G128" t="n">
-        <v>1.875699999999999</v>
+        <v>1.874549999999999</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4881,19 +5263,19 @@
         <v>1.899</v>
       </c>
       <c r="C129" t="n">
-        <v>1.891</v>
+        <v>1.899</v>
       </c>
       <c r="D129" t="n">
         <v>1.899</v>
       </c>
       <c r="E129" t="n">
-        <v>1.891</v>
+        <v>1.899</v>
       </c>
       <c r="F129" t="n">
-        <v>62399.13</v>
+        <v>59060</v>
       </c>
       <c r="G129" t="n">
-        <v>1.877</v>
+        <v>1.875699999999999</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4916,19 +5298,19 @@
         <v>1.899</v>
       </c>
       <c r="C130" t="n">
-        <v>1.899</v>
+        <v>1.891</v>
       </c>
       <c r="D130" t="n">
         <v>1.899</v>
       </c>
       <c r="E130" t="n">
-        <v>1.899</v>
+        <v>1.891</v>
       </c>
       <c r="F130" t="n">
-        <v>100000</v>
+        <v>62399.13</v>
       </c>
       <c r="G130" t="n">
-        <v>1.878433333333333</v>
+        <v>1.877</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4960,10 +5342,10 @@
         <v>1.899</v>
       </c>
       <c r="F131" t="n">
-        <v>25069.9999</v>
+        <v>100000</v>
       </c>
       <c r="G131" t="n">
-        <v>1.879916666666666</v>
+        <v>1.878433333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +5365,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.893</v>
+        <v>1.899</v>
       </c>
       <c r="C132" t="n">
-        <v>1.893</v>
+        <v>1.899</v>
       </c>
       <c r="D132" t="n">
-        <v>1.893</v>
+        <v>1.899</v>
       </c>
       <c r="E132" t="n">
-        <v>1.893</v>
+        <v>1.899</v>
       </c>
       <c r="F132" t="n">
-        <v>115196.757</v>
+        <v>25069.9999</v>
       </c>
       <c r="G132" t="n">
-        <v>1.880966666666666</v>
+        <v>1.879916666666666</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5400,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1.904</v>
+        <v>1.893</v>
       </c>
       <c r="C133" t="n">
-        <v>1.903</v>
+        <v>1.893</v>
       </c>
       <c r="D133" t="n">
-        <v>1.904</v>
+        <v>1.893</v>
       </c>
       <c r="E133" t="n">
-        <v>1.903</v>
+        <v>1.893</v>
       </c>
       <c r="F133" t="n">
-        <v>55060</v>
+        <v>115196.757</v>
       </c>
       <c r="G133" t="n">
-        <v>1.88235</v>
+        <v>1.880966666666666</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5435,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.903</v>
+        <v>1.904</v>
       </c>
       <c r="C134" t="n">
         <v>1.903</v>
       </c>
       <c r="D134" t="n">
-        <v>1.903</v>
+        <v>1.904</v>
       </c>
       <c r="E134" t="n">
         <v>1.903</v>
       </c>
       <c r="F134" t="n">
-        <v>18360</v>
+        <v>55060</v>
       </c>
       <c r="G134" t="n">
-        <v>1.883666666666667</v>
+        <v>1.88235</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5470,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1.899</v>
+        <v>1.903</v>
       </c>
       <c r="C135" t="n">
-        <v>1.899</v>
+        <v>1.903</v>
       </c>
       <c r="D135" t="n">
-        <v>1.899</v>
+        <v>1.903</v>
       </c>
       <c r="E135" t="n">
-        <v>1.899</v>
+        <v>1.903</v>
       </c>
       <c r="F135" t="n">
-        <v>38214.4189</v>
+        <v>18360</v>
       </c>
       <c r="G135" t="n">
-        <v>1.884816666666667</v>
+        <v>1.883666666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5135,10 +5517,10 @@
         <v>1.899</v>
       </c>
       <c r="F136" t="n">
-        <v>17239.3064</v>
+        <v>38214.4189</v>
       </c>
       <c r="G136" t="n">
-        <v>1.8863</v>
+        <v>1.884816666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5540,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1.894</v>
+        <v>1.899</v>
       </c>
       <c r="C137" t="n">
-        <v>1.87</v>
+        <v>1.899</v>
       </c>
       <c r="D137" t="n">
-        <v>1.894</v>
+        <v>1.899</v>
       </c>
       <c r="E137" t="n">
-        <v>1.87</v>
+        <v>1.899</v>
       </c>
       <c r="F137" t="n">
-        <v>1168880.4262</v>
+        <v>17239.3064</v>
       </c>
       <c r="G137" t="n">
-        <v>1.886966666666667</v>
+        <v>1.8863</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5575,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.899</v>
+        <v>1.894</v>
       </c>
       <c r="C138" t="n">
-        <v>1.899</v>
+        <v>1.87</v>
       </c>
       <c r="D138" t="n">
-        <v>1.899</v>
+        <v>1.894</v>
       </c>
       <c r="E138" t="n">
-        <v>1.899</v>
+        <v>1.87</v>
       </c>
       <c r="F138" t="n">
-        <v>35436.4901</v>
+        <v>1168880.4262</v>
       </c>
       <c r="G138" t="n">
-        <v>1.88795</v>
+        <v>1.886966666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5610,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1.88</v>
+        <v>1.899</v>
       </c>
       <c r="C139" t="n">
-        <v>1.88</v>
+        <v>1.899</v>
       </c>
       <c r="D139" t="n">
-        <v>1.88</v>
+        <v>1.899</v>
       </c>
       <c r="E139" t="n">
-        <v>1.88</v>
+        <v>1.899</v>
       </c>
       <c r="F139" t="n">
-        <v>60000</v>
+        <v>35436.4901</v>
       </c>
       <c r="G139" t="n">
-        <v>1.88855</v>
+        <v>1.88795</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5275,10 +5657,10 @@
         <v>1.88</v>
       </c>
       <c r="F140" t="n">
-        <v>21536.6782</v>
+        <v>60000</v>
       </c>
       <c r="G140" t="n">
-        <v>1.889133333333333</v>
+        <v>1.88855</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5310,10 +5692,10 @@
         <v>1.88</v>
       </c>
       <c r="F141" t="n">
-        <v>25527.8722</v>
+        <v>21536.6782</v>
       </c>
       <c r="G141" t="n">
-        <v>1.889716666666666</v>
+        <v>1.889133333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5345,10 +5727,10 @@
         <v>1.88</v>
       </c>
       <c r="F142" t="n">
-        <v>6070.8358</v>
+        <v>25527.8722</v>
       </c>
       <c r="G142" t="n">
-        <v>1.88995</v>
+        <v>1.889716666666666</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5380,10 +5762,10 @@
         <v>1.88</v>
       </c>
       <c r="F143" t="n">
-        <v>45000</v>
+        <v>6070.8358</v>
       </c>
       <c r="G143" t="n">
-        <v>1.89015</v>
+        <v>1.88995</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5415,10 +5797,10 @@
         <v>1.88</v>
       </c>
       <c r="F144" t="n">
-        <v>42519.9807</v>
+        <v>45000</v>
       </c>
       <c r="G144" t="n">
-        <v>1.890483333333333</v>
+        <v>1.89015</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5820,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1.887</v>
+        <v>1.88</v>
       </c>
       <c r="C145" t="n">
-        <v>1.887</v>
+        <v>1.88</v>
       </c>
       <c r="D145" t="n">
-        <v>1.887</v>
+        <v>1.88</v>
       </c>
       <c r="E145" t="n">
-        <v>1.887</v>
+        <v>1.88</v>
       </c>
       <c r="F145" t="n">
-        <v>51134.5572</v>
+        <v>42519.9807</v>
       </c>
       <c r="G145" t="n">
-        <v>1.890916666666666</v>
+        <v>1.890483333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5855,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1.899</v>
+        <v>1.887</v>
       </c>
       <c r="C146" t="n">
-        <v>1.899</v>
+        <v>1.887</v>
       </c>
       <c r="D146" t="n">
-        <v>1.899</v>
+        <v>1.887</v>
       </c>
       <c r="E146" t="n">
-        <v>1.899</v>
+        <v>1.887</v>
       </c>
       <c r="F146" t="n">
-        <v>441743.5099</v>
+        <v>51134.5572</v>
       </c>
       <c r="G146" t="n">
-        <v>1.891566666666666</v>
+        <v>1.890916666666666</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5520,10 +5902,10 @@
         <v>1.899</v>
       </c>
       <c r="F147" t="n">
-        <v>58256.4901</v>
+        <v>441743.5099</v>
       </c>
       <c r="G147" t="n">
-        <v>1.892216666666666</v>
+        <v>1.891566666666666</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,22 +5925,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.887</v>
+        <v>1.899</v>
       </c>
       <c r="C148" t="n">
-        <v>1.887</v>
+        <v>1.899</v>
       </c>
       <c r="D148" t="n">
-        <v>1.887</v>
+        <v>1.899</v>
       </c>
       <c r="E148" t="n">
-        <v>1.887</v>
+        <v>1.899</v>
       </c>
       <c r="F148" t="n">
-        <v>46829.6103</v>
+        <v>58256.4901</v>
       </c>
       <c r="G148" t="n">
-        <v>1.892666666666666</v>
+        <v>1.892216666666666</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5581,19 +5963,19 @@
         <v>1.887</v>
       </c>
       <c r="C149" t="n">
-        <v>1.877</v>
+        <v>1.887</v>
       </c>
       <c r="D149" t="n">
         <v>1.887</v>
       </c>
       <c r="E149" t="n">
-        <v>1.877</v>
+        <v>1.887</v>
       </c>
       <c r="F149" t="n">
-        <v>45000</v>
+        <v>46829.6103</v>
       </c>
       <c r="G149" t="n">
-        <v>1.893033333333333</v>
+        <v>1.892666666666666</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5616,19 +5998,19 @@
         <v>1.887</v>
       </c>
       <c r="C150" t="n">
-        <v>1.887</v>
+        <v>1.877</v>
       </c>
       <c r="D150" t="n">
         <v>1.887</v>
       </c>
       <c r="E150" t="n">
-        <v>1.887</v>
+        <v>1.877</v>
       </c>
       <c r="F150" t="n">
-        <v>113158.6134</v>
+        <v>45000</v>
       </c>
       <c r="G150" t="n">
-        <v>1.893316666666666</v>
+        <v>1.893033333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5660,10 +6042,10 @@
         <v>1.887</v>
       </c>
       <c r="F151" t="n">
-        <v>84868.96000000001</v>
+        <v>113158.6134</v>
       </c>
       <c r="G151" t="n">
-        <v>1.893766666666666</v>
+        <v>1.893316666666666</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5695,10 +6077,10 @@
         <v>1.887</v>
       </c>
       <c r="F152" t="n">
-        <v>299606.8802</v>
+        <v>84868.96000000001</v>
       </c>
       <c r="G152" t="n">
-        <v>1.894216666666666</v>
+        <v>1.893766666666666</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5721,19 +6103,19 @@
         <v>1.887</v>
       </c>
       <c r="C153" t="n">
-        <v>1.871</v>
+        <v>1.887</v>
       </c>
       <c r="D153" t="n">
         <v>1.887</v>
       </c>
       <c r="E153" t="n">
-        <v>1.871</v>
+        <v>1.887</v>
       </c>
       <c r="F153" t="n">
-        <v>1045811.779</v>
+        <v>299606.8802</v>
       </c>
       <c r="G153" t="n">
-        <v>1.8944</v>
+        <v>1.894216666666666</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,19 +6135,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1.87</v>
+        <v>1.887</v>
       </c>
       <c r="C154" t="n">
-        <v>1.87</v>
+        <v>1.871</v>
       </c>
       <c r="D154" t="n">
-        <v>1.87</v>
+        <v>1.887</v>
       </c>
       <c r="E154" t="n">
-        <v>1.87</v>
+        <v>1.871</v>
       </c>
       <c r="F154" t="n">
-        <v>1060.1063</v>
+        <v>1045811.779</v>
       </c>
       <c r="G154" t="n">
         <v>1.8944</v>
@@ -5800,10 +6182,10 @@
         <v>1.87</v>
       </c>
       <c r="F155" t="n">
-        <v>1364623.5596</v>
+        <v>1060.1063</v>
       </c>
       <c r="G155" t="n">
-        <v>1.89415</v>
+        <v>1.8944</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5835,10 +6217,10 @@
         <v>1.87</v>
       </c>
       <c r="F156" t="n">
-        <v>12927.5296</v>
+        <v>1364623.5596</v>
       </c>
       <c r="G156" t="n">
-        <v>1.893833333333333</v>
+        <v>1.89415</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +6240,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="C157" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="D157" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="E157" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="F157" t="n">
-        <v>7571.8886</v>
+        <v>12927.5296</v>
       </c>
       <c r="G157" t="n">
-        <v>1.8936</v>
+        <v>1.893833333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +6275,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1.886</v>
+        <v>1.88</v>
       </c>
       <c r="C158" t="n">
-        <v>1.886</v>
+        <v>1.88</v>
       </c>
       <c r="D158" t="n">
-        <v>1.886</v>
+        <v>1.88</v>
       </c>
       <c r="E158" t="n">
-        <v>1.886</v>
+        <v>1.88</v>
       </c>
       <c r="F158" t="n">
-        <v>11342</v>
+        <v>7571.8886</v>
       </c>
       <c r="G158" t="n">
-        <v>1.89375</v>
+        <v>1.8936</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5940,10 +6322,10 @@
         <v>1.886</v>
       </c>
       <c r="F159" t="n">
-        <v>1260.6766</v>
+        <v>11342</v>
       </c>
       <c r="G159" t="n">
-        <v>1.893699999999999</v>
+        <v>1.89375</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +6345,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1.87</v>
+        <v>1.886</v>
       </c>
       <c r="C160" t="n">
-        <v>1.861</v>
+        <v>1.886</v>
       </c>
       <c r="D160" t="n">
-        <v>1.87</v>
+        <v>1.886</v>
       </c>
       <c r="E160" t="n">
-        <v>1.861</v>
+        <v>1.886</v>
       </c>
       <c r="F160" t="n">
-        <v>31249.7664</v>
+        <v>1260.6766</v>
       </c>
       <c r="G160" t="n">
-        <v>1.893233333333333</v>
+        <v>1.893699999999999</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6001,19 +6383,19 @@
         <v>1.87</v>
       </c>
       <c r="C161" t="n">
-        <v>1.87</v>
+        <v>1.861</v>
       </c>
       <c r="D161" t="n">
         <v>1.87</v>
       </c>
       <c r="E161" t="n">
-        <v>1.87</v>
+        <v>1.861</v>
       </c>
       <c r="F161" t="n">
-        <v>130795.5325</v>
+        <v>31249.7664</v>
       </c>
       <c r="G161" t="n">
-        <v>1.89275</v>
+        <v>1.893233333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6415,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1.861</v>
+        <v>1.87</v>
       </c>
       <c r="C162" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="D162" t="n">
-        <v>1.861</v>
+        <v>1.87</v>
       </c>
       <c r="E162" t="n">
-        <v>1.855</v>
+        <v>1.87</v>
       </c>
       <c r="F162" t="n">
-        <v>328194.6317</v>
+        <v>130795.5325</v>
       </c>
       <c r="G162" t="n">
-        <v>1.891916666666666</v>
+        <v>1.89275</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6450,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1.851</v>
+        <v>1.861</v>
       </c>
       <c r="C163" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="D163" t="n">
-        <v>1.851</v>
+        <v>1.861</v>
       </c>
       <c r="E163" t="n">
-        <v>1.85</v>
+        <v>1.855</v>
       </c>
       <c r="F163" t="n">
-        <v>115000</v>
+        <v>328194.6317</v>
       </c>
       <c r="G163" t="n">
-        <v>1.89035</v>
+        <v>1.891916666666666</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,22 +6485,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1.85</v>
+        <v>1.851</v>
       </c>
       <c r="C164" t="n">
         <v>1.85</v>
       </c>
       <c r="D164" t="n">
-        <v>1.85</v>
+        <v>1.851</v>
       </c>
       <c r="E164" t="n">
         <v>1.85</v>
       </c>
       <c r="F164" t="n">
-        <v>199357.0786</v>
+        <v>115000</v>
       </c>
       <c r="G164" t="n">
-        <v>1.888783333333333</v>
+        <v>1.89035</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6150,10 +6532,10 @@
         <v>1.85</v>
       </c>
       <c r="F165" t="n">
-        <v>4709.5089</v>
+        <v>199357.0786</v>
       </c>
       <c r="G165" t="n">
-        <v>1.887749999999999</v>
+        <v>1.888783333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6176,19 +6558,19 @@
         <v>1.85</v>
       </c>
       <c r="C166" t="n">
-        <v>1.858</v>
+        <v>1.85</v>
       </c>
       <c r="D166" t="n">
-        <v>1.858</v>
+        <v>1.85</v>
       </c>
       <c r="E166" t="n">
         <v>1.85</v>
       </c>
       <c r="F166" t="n">
-        <v>369313.8604</v>
+        <v>4709.5089</v>
       </c>
       <c r="G166" t="n">
-        <v>1.887033333333333</v>
+        <v>1.887749999999999</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6208,7 +6590,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1.858</v>
+        <v>1.85</v>
       </c>
       <c r="C167" t="n">
         <v>1.858</v>
@@ -6217,13 +6599,13 @@
         <v>1.858</v>
       </c>
       <c r="E167" t="n">
-        <v>1.858</v>
+        <v>1.85</v>
       </c>
       <c r="F167" t="n">
-        <v>84036.9114</v>
+        <v>369313.8604</v>
       </c>
       <c r="G167" t="n">
-        <v>1.886483333333333</v>
+        <v>1.887033333333333</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6255,10 +6637,10 @@
         <v>1.858</v>
       </c>
       <c r="F168" t="n">
-        <v>323879.7665</v>
+        <v>84036.9114</v>
       </c>
       <c r="G168" t="n">
-        <v>1.885933333333333</v>
+        <v>1.886483333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,22 +6660,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1.87</v>
+        <v>1.858</v>
       </c>
       <c r="C169" t="n">
-        <v>1.87</v>
+        <v>1.858</v>
       </c>
       <c r="D169" t="n">
-        <v>1.87</v>
+        <v>1.858</v>
       </c>
       <c r="E169" t="n">
-        <v>1.87</v>
+        <v>1.858</v>
       </c>
       <c r="F169" t="n">
-        <v>264</v>
+        <v>323879.7665</v>
       </c>
       <c r="G169" t="n">
-        <v>1.885583333333333</v>
+        <v>1.885933333333333</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,22 +6695,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1.858</v>
+        <v>1.87</v>
       </c>
       <c r="C170" t="n">
-        <v>1.858</v>
+        <v>1.87</v>
       </c>
       <c r="D170" t="n">
-        <v>1.858</v>
+        <v>1.87</v>
       </c>
       <c r="E170" t="n">
-        <v>1.858</v>
+        <v>1.87</v>
       </c>
       <c r="F170" t="n">
-        <v>856.1053000000001</v>
+        <v>264</v>
       </c>
       <c r="G170" t="n">
-        <v>1.884733333333333</v>
+        <v>1.885583333333333</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,22 +6730,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1.853</v>
+        <v>1.858</v>
       </c>
       <c r="C171" t="n">
-        <v>1.853</v>
+        <v>1.858</v>
       </c>
       <c r="D171" t="n">
-        <v>1.853</v>
+        <v>1.858</v>
       </c>
       <c r="E171" t="n">
-        <v>1.853</v>
+        <v>1.858</v>
       </c>
       <c r="F171" t="n">
-        <v>1185712.5254</v>
+        <v>856.1053000000001</v>
       </c>
       <c r="G171" t="n">
-        <v>1.883983333333333</v>
+        <v>1.884733333333333</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6383,22 +6765,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1.87</v>
+        <v>1.853</v>
       </c>
       <c r="C172" t="n">
-        <v>1.87</v>
+        <v>1.853</v>
       </c>
       <c r="D172" t="n">
-        <v>1.87</v>
+        <v>1.853</v>
       </c>
       <c r="E172" t="n">
-        <v>1.87</v>
+        <v>1.853</v>
       </c>
       <c r="F172" t="n">
-        <v>254431.4278</v>
+        <v>1185712.5254</v>
       </c>
       <c r="G172" t="n">
-        <v>1.883483333333333</v>
+        <v>1.883983333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6418,22 +6800,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1.871</v>
+        <v>1.87</v>
       </c>
       <c r="C173" t="n">
         <v>1.87</v>
       </c>
       <c r="D173" t="n">
-        <v>1.871</v>
+        <v>1.87</v>
       </c>
       <c r="E173" t="n">
         <v>1.87</v>
       </c>
       <c r="F173" t="n">
-        <v>821414.6949</v>
+        <v>254431.4278</v>
       </c>
       <c r="G173" t="n">
-        <v>1.883016666666666</v>
+        <v>1.883483333333333</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6453,22 +6835,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1.87</v>
+        <v>1.871</v>
       </c>
       <c r="C174" t="n">
         <v>1.87</v>
       </c>
       <c r="D174" t="n">
-        <v>1.87</v>
+        <v>1.871</v>
       </c>
       <c r="E174" t="n">
         <v>1.87</v>
       </c>
       <c r="F174" t="n">
-        <v>40851.8231</v>
+        <v>821414.6949</v>
       </c>
       <c r="G174" t="n">
-        <v>1.882416666666666</v>
+        <v>1.883016666666666</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,22 +6870,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>1.854</v>
+        <v>1.87</v>
       </c>
       <c r="C175" t="n">
-        <v>1.854</v>
+        <v>1.87</v>
       </c>
       <c r="D175" t="n">
-        <v>1.854</v>
+        <v>1.87</v>
       </c>
       <c r="E175" t="n">
-        <v>1.854</v>
+        <v>1.87</v>
       </c>
       <c r="F175" t="n">
-        <v>382339.1405</v>
+        <v>40851.8231</v>
       </c>
       <c r="G175" t="n">
-        <v>1.881499999999999</v>
+        <v>1.882416666666666</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6523,22 +6905,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1.852</v>
+        <v>1.854</v>
       </c>
       <c r="C176" t="n">
-        <v>1.852</v>
+        <v>1.854</v>
       </c>
       <c r="D176" t="n">
-        <v>1.852</v>
+        <v>1.854</v>
       </c>
       <c r="E176" t="n">
-        <v>1.852</v>
+        <v>1.854</v>
       </c>
       <c r="F176" t="n">
-        <v>45000</v>
+        <v>382339.1405</v>
       </c>
       <c r="G176" t="n">
-        <v>1.880733333333333</v>
+        <v>1.881499999999999</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6570,10 +6952,10 @@
         <v>1.852</v>
       </c>
       <c r="F177" t="n">
-        <v>824748.624</v>
+        <v>45000</v>
       </c>
       <c r="G177" t="n">
-        <v>1.87995</v>
+        <v>1.880733333333333</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6605,10 +6987,10 @@
         <v>1.852</v>
       </c>
       <c r="F178" t="n">
-        <v>185251.376</v>
+        <v>824748.624</v>
       </c>
       <c r="G178" t="n">
-        <v>1.879166666666666</v>
+        <v>1.87995</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6631,19 +7013,19 @@
         <v>1.852</v>
       </c>
       <c r="C179" t="n">
-        <v>1.85</v>
+        <v>1.852</v>
       </c>
       <c r="D179" t="n">
         <v>1.852</v>
       </c>
       <c r="E179" t="n">
-        <v>1.85</v>
+        <v>1.852</v>
       </c>
       <c r="F179" t="n">
-        <v>989484.9095</v>
+        <v>185251.376</v>
       </c>
       <c r="G179" t="n">
-        <v>1.878333333333333</v>
+        <v>1.879166666666666</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +7045,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1.85</v>
+        <v>1.852</v>
       </c>
       <c r="C180" t="n">
         <v>1.85</v>
       </c>
       <c r="D180" t="n">
-        <v>1.85</v>
+        <v>1.852</v>
       </c>
       <c r="E180" t="n">
         <v>1.85</v>
       </c>
       <c r="F180" t="n">
-        <v>10000</v>
+        <v>989484.9095</v>
       </c>
       <c r="G180" t="n">
-        <v>1.877349999999999</v>
+        <v>1.878333333333333</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6710,10 +7092,10 @@
         <v>1.85</v>
       </c>
       <c r="F181" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="G181" t="n">
-        <v>1.876499999999999</v>
+        <v>1.877349999999999</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6745,10 +7127,10 @@
         <v>1.85</v>
       </c>
       <c r="F182" t="n">
-        <v>95340.8029</v>
+        <v>45000</v>
       </c>
       <c r="G182" t="n">
-        <v>1.875849999999999</v>
+        <v>1.876499999999999</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6780,10 +7162,10 @@
         <v>1.85</v>
       </c>
       <c r="F183" t="n">
-        <v>80480.61320000001</v>
+        <v>95340.8029</v>
       </c>
       <c r="G183" t="n">
-        <v>1.875233333333332</v>
+        <v>1.875849999999999</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6803,22 +7185,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>1.864</v>
+        <v>1.85</v>
       </c>
       <c r="C184" t="n">
-        <v>1.864</v>
+        <v>1.85</v>
       </c>
       <c r="D184" t="n">
-        <v>1.864</v>
+        <v>1.85</v>
       </c>
       <c r="E184" t="n">
-        <v>1.864</v>
+        <v>1.85</v>
       </c>
       <c r="F184" t="n">
-        <v>265</v>
+        <v>80480.61320000001</v>
       </c>
       <c r="G184" t="n">
-        <v>1.874783333333332</v>
+        <v>1.875233333333332</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6838,22 +7220,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1.85</v>
+        <v>1.864</v>
       </c>
       <c r="C185" t="n">
-        <v>1.847</v>
+        <v>1.864</v>
       </c>
       <c r="D185" t="n">
-        <v>1.85</v>
+        <v>1.864</v>
       </c>
       <c r="E185" t="n">
-        <v>1.847</v>
+        <v>1.864</v>
       </c>
       <c r="F185" t="n">
-        <v>1650988.0676</v>
+        <v>265</v>
       </c>
       <c r="G185" t="n">
-        <v>1.873866666666665</v>
+        <v>1.874783333333332</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6873,22 +7255,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>1.863</v>
+        <v>1.85</v>
       </c>
       <c r="C186" t="n">
-        <v>1.864</v>
+        <v>1.847</v>
       </c>
       <c r="D186" t="n">
-        <v>1.864</v>
+        <v>1.85</v>
       </c>
       <c r="E186" t="n">
-        <v>1.863</v>
+        <v>1.847</v>
       </c>
       <c r="F186" t="n">
-        <v>87242.5533</v>
+        <v>1650988.0676</v>
       </c>
       <c r="G186" t="n">
-        <v>1.873483333333332</v>
+        <v>1.873866666666665</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6908,22 +7290,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1.874</v>
+        <v>1.863</v>
       </c>
       <c r="C187" t="n">
-        <v>1.874</v>
+        <v>1.864</v>
       </c>
       <c r="D187" t="n">
-        <v>1.874</v>
+        <v>1.864</v>
       </c>
       <c r="E187" t="n">
-        <v>1.874</v>
+        <v>1.863</v>
       </c>
       <c r="F187" t="n">
-        <v>140369.0884</v>
+        <v>87242.5533</v>
       </c>
       <c r="G187" t="n">
-        <v>1.873199999999999</v>
+        <v>1.873483333333332</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6943,22 +7325,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1.864</v>
+        <v>1.874</v>
       </c>
       <c r="C188" t="n">
-        <v>1.864</v>
+        <v>1.874</v>
       </c>
       <c r="D188" t="n">
-        <v>1.864</v>
+        <v>1.874</v>
       </c>
       <c r="E188" t="n">
-        <v>1.864</v>
+        <v>1.874</v>
       </c>
       <c r="F188" t="n">
-        <v>10729.6138</v>
+        <v>140369.0884</v>
       </c>
       <c r="G188" t="n">
-        <v>1.872616666666665</v>
+        <v>1.873199999999999</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6978,22 +7360,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>1.878</v>
+        <v>1.864</v>
       </c>
       <c r="C189" t="n">
-        <v>1.878</v>
+        <v>1.864</v>
       </c>
       <c r="D189" t="n">
-        <v>1.878</v>
+        <v>1.864</v>
       </c>
       <c r="E189" t="n">
         <v>1.864</v>
       </c>
       <c r="F189" t="n">
-        <v>307927.5101</v>
+        <v>10729.6138</v>
       </c>
       <c r="G189" t="n">
-        <v>1.872399999999999</v>
+        <v>1.872616666666665</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7022,13 +7404,13 @@
         <v>1.878</v>
       </c>
       <c r="E190" t="n">
-        <v>1.878</v>
+        <v>1.864</v>
       </c>
       <c r="F190" t="n">
-        <v>48637.2795</v>
+        <v>307927.5101</v>
       </c>
       <c r="G190" t="n">
-        <v>1.872049999999999</v>
+        <v>1.872399999999999</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7060,10 +7442,10 @@
         <v>1.878</v>
       </c>
       <c r="F191" t="n">
-        <v>92411.3624</v>
+        <v>48637.2795</v>
       </c>
       <c r="G191" t="n">
-        <v>1.871699999999999</v>
+        <v>1.872049999999999</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7083,22 +7465,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1.864</v>
+        <v>1.878</v>
       </c>
       <c r="C192" t="n">
-        <v>1.864</v>
+        <v>1.878</v>
       </c>
       <c r="D192" t="n">
-        <v>1.864</v>
+        <v>1.878</v>
       </c>
       <c r="E192" t="n">
-        <v>1.864</v>
+        <v>1.878</v>
       </c>
       <c r="F192" t="n">
-        <v>45000</v>
+        <v>92411.3624</v>
       </c>
       <c r="G192" t="n">
-        <v>1.871216666666665</v>
+        <v>1.871699999999999</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7118,22 +7500,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>1.878</v>
+        <v>1.864</v>
       </c>
       <c r="C193" t="n">
-        <v>1.878</v>
+        <v>1.864</v>
       </c>
       <c r="D193" t="n">
-        <v>1.878</v>
+        <v>1.864</v>
       </c>
       <c r="E193" t="n">
-        <v>1.878</v>
+        <v>1.864</v>
       </c>
       <c r="F193" t="n">
-        <v>3400.4392</v>
+        <v>45000</v>
       </c>
       <c r="G193" t="n">
-        <v>1.870799999999999</v>
+        <v>1.871216666666665</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7153,22 +7535,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1.874</v>
+        <v>1.878</v>
       </c>
       <c r="C194" t="n">
-        <v>1.86</v>
+        <v>1.878</v>
       </c>
       <c r="D194" t="n">
-        <v>1.874</v>
+        <v>1.878</v>
       </c>
       <c r="E194" t="n">
-        <v>1.86</v>
+        <v>1.878</v>
       </c>
       <c r="F194" t="n">
-        <v>271098.0055</v>
+        <v>3400.4392</v>
       </c>
       <c r="G194" t="n">
-        <v>1.870083333333332</v>
+        <v>1.870799999999999</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7188,22 +7570,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>1.86</v>
+        <v>1.874</v>
       </c>
       <c r="C195" t="n">
         <v>1.86</v>
       </c>
       <c r="D195" t="n">
-        <v>1.86</v>
+        <v>1.874</v>
       </c>
       <c r="E195" t="n">
         <v>1.86</v>
       </c>
       <c r="F195" t="n">
-        <v>66004.26300000001</v>
+        <v>271098.0055</v>
       </c>
       <c r="G195" t="n">
-        <v>1.869433333333332</v>
+        <v>1.870083333333332</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7235,10 +7617,10 @@
         <v>1.86</v>
       </c>
       <c r="F196" t="n">
-        <v>252394.8188</v>
+        <v>66004.26300000001</v>
       </c>
       <c r="G196" t="n">
-        <v>1.868783333333332</v>
+        <v>1.869433333333332</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7258,22 +7640,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1.862</v>
+        <v>1.86</v>
       </c>
       <c r="C197" t="n">
-        <v>1.862</v>
+        <v>1.86</v>
       </c>
       <c r="D197" t="n">
-        <v>1.862</v>
+        <v>1.86</v>
       </c>
       <c r="E197" t="n">
-        <v>1.862</v>
+        <v>1.86</v>
       </c>
       <c r="F197" t="n">
-        <v>3262.1156</v>
+        <v>252394.8188</v>
       </c>
       <c r="G197" t="n">
-        <v>1.868649999999998</v>
+        <v>1.868783333333332</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7293,22 +7675,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>1.877</v>
+        <v>1.862</v>
       </c>
       <c r="C198" t="n">
-        <v>1.877</v>
+        <v>1.862</v>
       </c>
       <c r="D198" t="n">
-        <v>1.877</v>
+        <v>1.862</v>
       </c>
       <c r="E198" t="n">
-        <v>1.877</v>
+        <v>1.862</v>
       </c>
       <c r="F198" t="n">
-        <v>7538.0472</v>
+        <v>3262.1156</v>
       </c>
       <c r="G198" t="n">
-        <v>1.868283333333332</v>
+        <v>1.868649999999998</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7340,10 +7722,10 @@
         <v>1.877</v>
       </c>
       <c r="F199" t="n">
-        <v>81133.7582</v>
+        <v>7538.0472</v>
       </c>
       <c r="G199" t="n">
-        <v>1.868233333333332</v>
+        <v>1.868283333333332</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7375,10 +7757,10 @@
         <v>1.877</v>
       </c>
       <c r="F200" t="n">
-        <v>140838.1945</v>
+        <v>81133.7582</v>
       </c>
       <c r="G200" t="n">
-        <v>1.868183333333332</v>
+        <v>1.868233333333332</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7398,22 +7780,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>1.874</v>
+        <v>1.877</v>
       </c>
       <c r="C201" t="n">
-        <v>1.874</v>
+        <v>1.877</v>
       </c>
       <c r="D201" t="n">
-        <v>1.874</v>
+        <v>1.877</v>
       </c>
       <c r="E201" t="n">
-        <v>1.874</v>
+        <v>1.877</v>
       </c>
       <c r="F201" t="n">
-        <v>44760</v>
+        <v>140838.1945</v>
       </c>
       <c r="G201" t="n">
-        <v>1.868083333333332</v>
+        <v>1.868183333333332</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7433,22 +7815,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1.878</v>
+        <v>1.874</v>
       </c>
       <c r="C202" t="n">
-        <v>1.878</v>
+        <v>1.874</v>
       </c>
       <c r="D202" t="n">
-        <v>1.878</v>
+        <v>1.874</v>
       </c>
       <c r="E202" t="n">
-        <v>1.878</v>
+        <v>1.874</v>
       </c>
       <c r="F202" t="n">
-        <v>22389.9999</v>
+        <v>44760</v>
       </c>
       <c r="G202" t="n">
-        <v>1.868049999999998</v>
+        <v>1.868083333333332</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7471,19 +7853,19 @@
         <v>1.878</v>
       </c>
       <c r="C203" t="n">
-        <v>1.881</v>
+        <v>1.878</v>
       </c>
       <c r="D203" t="n">
-        <v>1.89</v>
+        <v>1.878</v>
       </c>
       <c r="E203" t="n">
         <v>1.878</v>
       </c>
       <c r="F203" t="n">
-        <v>141917.356</v>
+        <v>22389.9999</v>
       </c>
       <c r="G203" t="n">
-        <v>1.868066666666665</v>
+        <v>1.868049999999998</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7503,22 +7885,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="D204" t="n">
         <v>1.89</v>
       </c>
-      <c r="C204" t="n">
-        <v>1.892</v>
-      </c>
-      <c r="D204" t="n">
-        <v>1.892</v>
-      </c>
       <c r="E204" t="n">
-        <v>1.89</v>
+        <v>1.878</v>
       </c>
       <c r="F204" t="n">
-        <v>259973.1193</v>
+        <v>141917.356</v>
       </c>
       <c r="G204" t="n">
-        <v>1.868266666666665</v>
+        <v>1.868066666666665</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7538,22 +7920,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="C205" t="n">
-        <v>1.861</v>
+        <v>1.892</v>
       </c>
       <c r="D205" t="n">
-        <v>1.87</v>
+        <v>1.892</v>
       </c>
       <c r="E205" t="n">
-        <v>1.861</v>
+        <v>1.89</v>
       </c>
       <c r="F205" t="n">
-        <v>147057.6911</v>
+        <v>259973.1193</v>
       </c>
       <c r="G205" t="n">
-        <v>1.867833333333332</v>
+        <v>1.868266666666665</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7573,22 +7955,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="C206" t="n">
-        <v>1.892</v>
+        <v>1.861</v>
       </c>
       <c r="D206" t="n">
-        <v>1.892</v>
+        <v>1.87</v>
       </c>
       <c r="E206" t="n">
-        <v>1.88</v>
+        <v>1.861</v>
       </c>
       <c r="F206" t="n">
-        <v>80538.3156</v>
+        <v>147057.6911</v>
       </c>
       <c r="G206" t="n">
-        <v>1.867716666666665</v>
+        <v>1.867833333333332</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7608,22 +7990,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>1.885</v>
+        <v>1.88</v>
       </c>
       <c r="C207" t="n">
-        <v>1.885</v>
+        <v>1.892</v>
       </c>
       <c r="D207" t="n">
-        <v>1.885</v>
+        <v>1.892</v>
       </c>
       <c r="E207" t="n">
-        <v>1.885</v>
+        <v>1.88</v>
       </c>
       <c r="F207" t="n">
-        <v>28180</v>
+        <v>80538.3156</v>
       </c>
       <c r="G207" t="n">
-        <v>1.867483333333332</v>
+        <v>1.867716666666665</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7643,22 +8025,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>1.892</v>
+        <v>1.885</v>
       </c>
       <c r="C208" t="n">
-        <v>1.895</v>
+        <v>1.885</v>
       </c>
       <c r="D208" t="n">
-        <v>1.895</v>
+        <v>1.885</v>
       </c>
       <c r="E208" t="n">
-        <v>1.892</v>
+        <v>1.885</v>
       </c>
       <c r="F208" t="n">
-        <v>345000</v>
+        <v>28180</v>
       </c>
       <c r="G208" t="n">
-        <v>1.867616666666665</v>
+        <v>1.867483333333332</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7678,7 +8060,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>1.895</v>
+        <v>1.892</v>
       </c>
       <c r="C209" t="n">
         <v>1.895</v>
@@ -7687,13 +8069,13 @@
         <v>1.895</v>
       </c>
       <c r="E209" t="n">
-        <v>1.895</v>
+        <v>1.892</v>
       </c>
       <c r="F209" t="n">
-        <v>60000</v>
+        <v>345000</v>
       </c>
       <c r="G209" t="n">
-        <v>1.867916666666665</v>
+        <v>1.867616666666665</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7725,10 +8107,10 @@
         <v>1.895</v>
       </c>
       <c r="F210" t="n">
-        <v>19143.9908</v>
+        <v>60000</v>
       </c>
       <c r="G210" t="n">
-        <v>1.868049999999998</v>
+        <v>1.867916666666665</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7748,22 +8130,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>1.896</v>
+        <v>1.895</v>
       </c>
       <c r="C211" t="n">
-        <v>1.905</v>
+        <v>1.895</v>
       </c>
       <c r="D211" t="n">
-        <v>1.905</v>
+        <v>1.895</v>
       </c>
       <c r="E211" t="n">
-        <v>1.896</v>
+        <v>1.895</v>
       </c>
       <c r="F211" t="n">
-        <v>225000</v>
+        <v>19143.9908</v>
       </c>
       <c r="G211" t="n">
-        <v>1.868349999999998</v>
+        <v>1.868049999999998</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7783,7 +8165,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>1.895</v>
+        <v>1.896</v>
       </c>
       <c r="C212" t="n">
         <v>1.905</v>
@@ -7792,13 +8174,13 @@
         <v>1.905</v>
       </c>
       <c r="E212" t="n">
-        <v>1.895</v>
+        <v>1.896</v>
       </c>
       <c r="F212" t="n">
-        <v>237111.7535</v>
+        <v>225000</v>
       </c>
       <c r="G212" t="n">
-        <v>1.868649999999998</v>
+        <v>1.868349999999998</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7821,19 +8203,19 @@
         <v>1.895</v>
       </c>
       <c r="C213" t="n">
-        <v>1.89</v>
+        <v>1.905</v>
       </c>
       <c r="D213" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="E213" t="n">
         <v>1.895</v>
       </c>
-      <c r="E213" t="n">
-        <v>1.88</v>
-      </c>
       <c r="F213" t="n">
-        <v>255794.6637</v>
+        <v>237111.7535</v>
       </c>
       <c r="G213" t="n">
-        <v>1.868966666666665</v>
+        <v>1.868649999999998</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7853,22 +8235,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>1.899</v>
+        <v>1.895</v>
       </c>
       <c r="C214" t="n">
-        <v>1.899</v>
+        <v>1.89</v>
       </c>
       <c r="D214" t="n">
-        <v>1.899</v>
+        <v>1.895</v>
       </c>
       <c r="E214" t="n">
-        <v>1.899</v>
+        <v>1.88</v>
       </c>
       <c r="F214" t="n">
-        <v>59140</v>
+        <v>255794.6637</v>
       </c>
       <c r="G214" t="n">
-        <v>1.869449999999998</v>
+        <v>1.868966666666665</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7888,22 +8270,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>1.9</v>
+        <v>1.899</v>
       </c>
       <c r="C215" t="n">
-        <v>1.9</v>
+        <v>1.899</v>
       </c>
       <c r="D215" t="n">
-        <v>1.9</v>
+        <v>1.899</v>
       </c>
       <c r="E215" t="n">
-        <v>1.9</v>
+        <v>1.899</v>
       </c>
       <c r="F215" t="n">
-        <v>270</v>
+        <v>59140</v>
       </c>
       <c r="G215" t="n">
-        <v>1.869949999999998</v>
+        <v>1.869449999999998</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7935,10 +8317,10 @@
         <v>1.9</v>
       </c>
       <c r="F216" t="n">
-        <v>9887.167600000001</v>
+        <v>270</v>
       </c>
       <c r="G216" t="n">
-        <v>1.870449999999998</v>
+        <v>1.869949999999998</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7958,22 +8340,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>1.909</v>
+        <v>1.9</v>
       </c>
       <c r="C217" t="n">
-        <v>1.909</v>
+        <v>1.9</v>
       </c>
       <c r="D217" t="n">
-        <v>1.909</v>
+        <v>1.9</v>
       </c>
       <c r="E217" t="n">
-        <v>1.909</v>
+        <v>1.9</v>
       </c>
       <c r="F217" t="n">
-        <v>349461</v>
+        <v>9887.167600000001</v>
       </c>
       <c r="G217" t="n">
-        <v>1.870933333333332</v>
+        <v>1.870449999999998</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8005,10 +8387,10 @@
         <v>1.909</v>
       </c>
       <c r="F218" t="n">
-        <v>658.8296</v>
+        <v>349461</v>
       </c>
       <c r="G218" t="n">
-        <v>1.871316666666665</v>
+        <v>1.870933333333332</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8040,10 +8422,10 @@
         <v>1.909</v>
       </c>
       <c r="F219" t="n">
-        <v>121826.5755</v>
+        <v>658.8296</v>
       </c>
       <c r="G219" t="n">
-        <v>1.871699999999999</v>
+        <v>1.871316666666665</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8063,22 +8445,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="C220" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="D220" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="E220" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="F220" t="n">
-        <v>20794.6637</v>
+        <v>121826.5755</v>
       </c>
       <c r="G220" t="n">
-        <v>1.872516666666665</v>
+        <v>1.871699999999999</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8110,10 +8492,10 @@
         <v>1.91</v>
       </c>
       <c r="F221" t="n">
-        <v>15236.377</v>
+        <v>20794.6637</v>
       </c>
       <c r="G221" t="n">
-        <v>1.873183333333332</v>
+        <v>1.872516666666665</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8145,10 +8527,10 @@
         <v>1.91</v>
       </c>
       <c r="F222" t="n">
-        <v>17695.1236</v>
+        <v>15236.377</v>
       </c>
       <c r="G222" t="n">
-        <v>1.874016666666665</v>
+        <v>1.873183333333332</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8168,22 +8550,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="C223" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="D223" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="E223" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="F223" t="n">
-        <v>60000</v>
+        <v>17695.1236</v>
       </c>
       <c r="G223" t="n">
-        <v>1.874849999999999</v>
+        <v>1.874016666666665</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8215,10 +8597,10 @@
         <v>1.9</v>
       </c>
       <c r="F224" t="n">
-        <v>8863.324500000001</v>
+        <v>60000</v>
       </c>
       <c r="G224" t="n">
-        <v>1.875683333333332</v>
+        <v>1.874849999999999</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8250,10 +8632,10 @@
         <v>1.9</v>
       </c>
       <c r="F225" t="n">
-        <v>20698.7601</v>
+        <v>8863.324500000001</v>
       </c>
       <c r="G225" t="n">
-        <v>1.876516666666666</v>
+        <v>1.875683333333332</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8285,10 +8667,10 @@
         <v>1.9</v>
       </c>
       <c r="F226" t="n">
-        <v>67098.8055</v>
+        <v>20698.7601</v>
       </c>
       <c r="G226" t="n">
-        <v>1.877216666666666</v>
+        <v>1.876516666666666</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8320,10 +8702,10 @@
         <v>1.9</v>
       </c>
       <c r="F227" t="n">
-        <v>31054.7037</v>
+        <v>67098.8055</v>
       </c>
       <c r="G227" t="n">
-        <v>1.877916666666666</v>
+        <v>1.877216666666666</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8343,22 +8725,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>1.899</v>
+        <v>1.9</v>
       </c>
       <c r="C228" t="n">
-        <v>1.882</v>
+        <v>1.9</v>
       </c>
       <c r="D228" t="n">
-        <v>1.899</v>
+        <v>1.9</v>
       </c>
       <c r="E228" t="n">
-        <v>1.882</v>
+        <v>1.9</v>
       </c>
       <c r="F228" t="n">
-        <v>361697.6189</v>
+        <v>31054.7037</v>
       </c>
       <c r="G228" t="n">
-        <v>1.878316666666666</v>
+        <v>1.877916666666666</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8378,22 +8760,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="C229" t="n">
         <v>1.882</v>
       </c>
-      <c r="C229" t="n">
-        <v>1.89</v>
-      </c>
       <c r="D229" t="n">
-        <v>1.89</v>
+        <v>1.899</v>
       </c>
       <c r="E229" t="n">
-        <v>1.861</v>
+        <v>1.882</v>
       </c>
       <c r="F229" t="n">
-        <v>1451408.9813</v>
+        <v>361697.6189</v>
       </c>
       <c r="G229" t="n">
-        <v>1.878649999999999</v>
+        <v>1.878316666666666</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8413,7 +8795,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>1.89</v>
+        <v>1.882</v>
       </c>
       <c r="C230" t="n">
         <v>1.89</v>
@@ -8422,13 +8804,13 @@
         <v>1.89</v>
       </c>
       <c r="E230" t="n">
-        <v>1.89</v>
+        <v>1.861</v>
       </c>
       <c r="F230" t="n">
-        <v>24965.494</v>
+        <v>1451408.9813</v>
       </c>
       <c r="G230" t="n">
-        <v>1.879183333333333</v>
+        <v>1.878649999999999</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8460,10 +8842,10 @@
         <v>1.89</v>
       </c>
       <c r="F231" t="n">
-        <v>51741.3024</v>
+        <v>24965.494</v>
       </c>
       <c r="G231" t="n">
-        <v>1.879799999999999</v>
+        <v>1.879183333333333</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8483,22 +8865,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>1.883</v>
+        <v>1.89</v>
       </c>
       <c r="C232" t="n">
-        <v>1.883</v>
+        <v>1.89</v>
       </c>
       <c r="D232" t="n">
-        <v>1.883</v>
+        <v>1.89</v>
       </c>
       <c r="E232" t="n">
-        <v>1.883</v>
+        <v>1.89</v>
       </c>
       <c r="F232" t="n">
-        <v>30850</v>
+        <v>51741.3024</v>
       </c>
       <c r="G232" t="n">
-        <v>1.880016666666666</v>
+        <v>1.879799999999999</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8518,22 +8900,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>1.882</v>
+        <v>1.883</v>
       </c>
       <c r="C233" t="n">
-        <v>1.861</v>
+        <v>1.883</v>
       </c>
       <c r="D233" t="n">
-        <v>1.882</v>
+        <v>1.883</v>
       </c>
       <c r="E233" t="n">
-        <v>1.861</v>
+        <v>1.883</v>
       </c>
       <c r="F233" t="n">
-        <v>736225.0277</v>
+        <v>30850</v>
       </c>
       <c r="G233" t="n">
-        <v>1.879866666666666</v>
+        <v>1.880016666666666</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8553,22 +8935,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>1.86</v>
+        <v>1.882</v>
       </c>
       <c r="C234" t="n">
-        <v>1.86</v>
+        <v>1.861</v>
       </c>
       <c r="D234" t="n">
-        <v>1.86</v>
+        <v>1.882</v>
       </c>
       <c r="E234" t="n">
-        <v>1.86</v>
+        <v>1.861</v>
       </c>
       <c r="F234" t="n">
-        <v>6897.3258</v>
+        <v>736225.0277</v>
       </c>
       <c r="G234" t="n">
-        <v>1.879699999999999</v>
+        <v>1.879866666666666</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8588,22 +8970,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>1.857</v>
+        <v>1.86</v>
       </c>
       <c r="C235" t="n">
-        <v>1.857</v>
+        <v>1.86</v>
       </c>
       <c r="D235" t="n">
-        <v>1.857</v>
+        <v>1.86</v>
       </c>
       <c r="E235" t="n">
-        <v>1.857</v>
+        <v>1.86</v>
       </c>
       <c r="F235" t="n">
-        <v>203390</v>
+        <v>6897.3258</v>
       </c>
       <c r="G235" t="n">
-        <v>1.879749999999999</v>
+        <v>1.879699999999999</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8623,22 +9005,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>1.86</v>
+        <v>1.857</v>
       </c>
       <c r="C236" t="n">
-        <v>1.843</v>
+        <v>1.857</v>
       </c>
       <c r="D236" t="n">
-        <v>1.86</v>
+        <v>1.857</v>
       </c>
       <c r="E236" t="n">
-        <v>1.843</v>
+        <v>1.857</v>
       </c>
       <c r="F236" t="n">
-        <v>1586229.5345</v>
+        <v>203390</v>
       </c>
       <c r="G236" t="n">
-        <v>1.879599999999999</v>
+        <v>1.879749999999999</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8658,22 +9040,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>1.843</v>
+        <v>1.86</v>
       </c>
       <c r="C237" t="n">
         <v>1.843</v>
       </c>
       <c r="D237" t="n">
-        <v>1.843</v>
+        <v>1.86</v>
       </c>
       <c r="E237" t="n">
         <v>1.843</v>
       </c>
       <c r="F237" t="n">
-        <v>60829.3963</v>
+        <v>1586229.5345</v>
       </c>
       <c r="G237" t="n">
-        <v>1.879449999999999</v>
+        <v>1.879599999999999</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8705,10 +9087,10 @@
         <v>1.843</v>
       </c>
       <c r="F238" t="n">
-        <v>547469.4381</v>
+        <v>60829.3963</v>
       </c>
       <c r="G238" t="n">
-        <v>1.879299999999999</v>
+        <v>1.879449999999999</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8728,22 +9110,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>1.834</v>
+        <v>1.843</v>
       </c>
       <c r="C239" t="n">
-        <v>1.834</v>
+        <v>1.843</v>
       </c>
       <c r="D239" t="n">
-        <v>1.834</v>
+        <v>1.843</v>
       </c>
       <c r="E239" t="n">
-        <v>1.834</v>
+        <v>1.843</v>
       </c>
       <c r="F239" t="n">
-        <v>520</v>
+        <v>547469.4381</v>
       </c>
       <c r="G239" t="n">
-        <v>1.879033333333332</v>
+        <v>1.879299999999999</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8763,22 +9145,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>1.859</v>
+        <v>1.834</v>
       </c>
       <c r="C240" t="n">
-        <v>1.859</v>
+        <v>1.834</v>
       </c>
       <c r="D240" t="n">
-        <v>1.859</v>
+        <v>1.834</v>
       </c>
       <c r="E240" t="n">
-        <v>1.859</v>
+        <v>1.834</v>
       </c>
       <c r="F240" t="n">
-        <v>63862.2636</v>
+        <v>520</v>
       </c>
       <c r="G240" t="n">
-        <v>1.879183333333333</v>
+        <v>1.879033333333332</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8798,22 +9180,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>1.86</v>
+        <v>1.859</v>
       </c>
       <c r="C241" t="n">
-        <v>1.86</v>
+        <v>1.859</v>
       </c>
       <c r="D241" t="n">
-        <v>1.86</v>
+        <v>1.859</v>
       </c>
       <c r="E241" t="n">
-        <v>1.86</v>
+        <v>1.859</v>
       </c>
       <c r="F241" t="n">
-        <v>3783.2649</v>
+        <v>63862.2636</v>
       </c>
       <c r="G241" t="n">
-        <v>1.879349999999999</v>
+        <v>1.879183333333333</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8833,22 +9215,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>1.858</v>
+        <v>1.86</v>
       </c>
       <c r="C242" t="n">
-        <v>1.858</v>
+        <v>1.86</v>
       </c>
       <c r="D242" t="n">
-        <v>1.858</v>
+        <v>1.86</v>
       </c>
       <c r="E242" t="n">
-        <v>1.858</v>
+        <v>1.86</v>
       </c>
       <c r="F242" t="n">
-        <v>35710</v>
+        <v>3783.2649</v>
       </c>
       <c r="G242" t="n">
-        <v>1.879483333333333</v>
+        <v>1.879349999999999</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8868,22 +9250,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>1.86</v>
+        <v>1.858</v>
       </c>
       <c r="C243" t="n">
-        <v>1.861</v>
+        <v>1.858</v>
       </c>
       <c r="D243" t="n">
-        <v>1.861</v>
+        <v>1.858</v>
       </c>
       <c r="E243" t="n">
-        <v>1.86</v>
+        <v>1.858</v>
       </c>
       <c r="F243" t="n">
-        <v>85181.8867</v>
+        <v>35710</v>
       </c>
       <c r="G243" t="n">
-        <v>1.879666666666666</v>
+        <v>1.879483333333333</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8903,22 +9285,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>1.862</v>
+        <v>1.86</v>
       </c>
       <c r="C244" t="n">
-        <v>1.86</v>
+        <v>1.861</v>
       </c>
       <c r="D244" t="n">
-        <v>1.862</v>
+        <v>1.861</v>
       </c>
       <c r="E244" t="n">
         <v>1.86</v>
       </c>
       <c r="F244" t="n">
-        <v>4130273.5893</v>
+        <v>85181.8867</v>
       </c>
       <c r="G244" t="n">
-        <v>1.879599999999999</v>
+        <v>1.879666666666666</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8938,22 +9320,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>1.85</v>
+        <v>1.862</v>
       </c>
       <c r="C245" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="D245" t="n">
-        <v>1.85</v>
+        <v>1.862</v>
       </c>
       <c r="E245" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="F245" t="n">
-        <v>254317.4642</v>
+        <v>4130273.5893</v>
       </c>
       <c r="G245" t="n">
-        <v>1.879649999999999</v>
+        <v>1.879599999999999</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -8973,7 +9355,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>1.849</v>
+        <v>1.85</v>
       </c>
       <c r="C246" t="n">
         <v>1.85</v>
@@ -8982,13 +9364,13 @@
         <v>1.85</v>
       </c>
       <c r="E246" t="n">
-        <v>1.849</v>
+        <v>1.85</v>
       </c>
       <c r="F246" t="n">
-        <v>860002.0996</v>
+        <v>254317.4642</v>
       </c>
       <c r="G246" t="n">
-        <v>1.879416666666666</v>
+        <v>1.879649999999999</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9008,7 +9390,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>1.85</v>
+        <v>1.849</v>
       </c>
       <c r="C247" t="n">
         <v>1.85</v>
@@ -9017,13 +9399,13 @@
         <v>1.85</v>
       </c>
       <c r="E247" t="n">
-        <v>1.85</v>
+        <v>1.849</v>
       </c>
       <c r="F247" t="n">
-        <v>300000</v>
+        <v>860002.0996</v>
       </c>
       <c r="G247" t="n">
-        <v>1.879016666666666</v>
+        <v>1.879416666666666</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9043,22 +9425,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>1.848</v>
+        <v>1.85</v>
       </c>
       <c r="C248" t="n">
-        <v>1.847</v>
+        <v>1.85</v>
       </c>
       <c r="D248" t="n">
-        <v>1.848</v>
+        <v>1.85</v>
       </c>
       <c r="E248" t="n">
-        <v>1.847</v>
+        <v>1.85</v>
       </c>
       <c r="F248" t="n">
-        <v>219837.2234</v>
+        <v>300000</v>
       </c>
       <c r="G248" t="n">
-        <v>1.878733333333332</v>
+        <v>1.879016666666666</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9078,22 +9460,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
+        <v>1.848</v>
+      </c>
+      <c r="C249" t="n">
         <v>1.847</v>
       </c>
-      <c r="C249" t="n">
-        <v>1.84</v>
-      </c>
       <c r="D249" t="n">
+        <v>1.848</v>
+      </c>
+      <c r="E249" t="n">
         <v>1.847</v>
       </c>
-      <c r="E249" t="n">
-        <v>1.84</v>
-      </c>
       <c r="F249" t="n">
-        <v>280410.0555</v>
+        <v>219837.2234</v>
       </c>
       <c r="G249" t="n">
-        <v>1.878099999999999</v>
+        <v>1.878733333333332</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9113,35 +9495,31 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>1.84</v>
+        <v>1.847</v>
       </c>
       <c r="C250" t="n">
         <v>1.84</v>
       </c>
       <c r="D250" t="n">
-        <v>1.84</v>
+        <v>1.847</v>
       </c>
       <c r="E250" t="n">
         <v>1.84</v>
       </c>
       <c r="F250" t="n">
-        <v>11059.0805</v>
+        <v>280410.0555</v>
       </c>
       <c r="G250" t="n">
-        <v>1.877466666666666</v>
+        <v>1.878099999999999</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="K250" t="n">
-        <v>1.84</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
@@ -9152,22 +9530,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>1.839</v>
+        <v>1.84</v>
       </c>
       <c r="C251" t="n">
-        <v>1.839</v>
+        <v>1.84</v>
       </c>
       <c r="D251" t="n">
-        <v>1.839</v>
+        <v>1.84</v>
       </c>
       <c r="E251" t="n">
-        <v>1.839</v>
+        <v>1.84</v>
       </c>
       <c r="F251" t="n">
-        <v>4778.9769</v>
+        <v>11059.0805</v>
       </c>
       <c r="G251" t="n">
-        <v>1.876816666666666</v>
+        <v>1.877466666666666</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9176,14 +9554,8 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9193,40 +9565,32 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>1.838</v>
+        <v>1.839</v>
       </c>
       <c r="C252" t="n">
-        <v>1.838</v>
+        <v>1.839</v>
       </c>
       <c r="D252" t="n">
-        <v>1.838</v>
+        <v>1.839</v>
       </c>
       <c r="E252" t="n">
-        <v>1.838</v>
+        <v>1.839</v>
       </c>
       <c r="F252" t="n">
-        <v>8479.8935</v>
+        <v>4778.9769</v>
       </c>
       <c r="G252" t="n">
-        <v>1.876383333333332</v>
+        <v>1.876816666666666</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="K252" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9236,40 +9600,32 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>1.837</v>
+        <v>1.838</v>
       </c>
       <c r="C253" t="n">
-        <v>1.835</v>
+        <v>1.838</v>
       </c>
       <c r="D253" t="n">
-        <v>1.837</v>
+        <v>1.838</v>
       </c>
       <c r="E253" t="n">
-        <v>1.835</v>
+        <v>1.838</v>
       </c>
       <c r="F253" t="n">
-        <v>29802.1582</v>
+        <v>8479.8935</v>
       </c>
       <c r="G253" t="n">
-        <v>1.875666666666665</v>
+        <v>1.876383333333332</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
-        <v>1.838</v>
-      </c>
-      <c r="K253" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9279,40 +9635,32 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>1.834</v>
+        <v>1.837</v>
       </c>
       <c r="C254" t="n">
-        <v>1.833</v>
+        <v>1.835</v>
       </c>
       <c r="D254" t="n">
-        <v>1.834</v>
+        <v>1.837</v>
       </c>
       <c r="E254" t="n">
-        <v>1.833</v>
+        <v>1.835</v>
       </c>
       <c r="F254" t="n">
-        <v>125925.896</v>
+        <v>29802.1582</v>
       </c>
       <c r="G254" t="n">
-        <v>1.875216666666666</v>
+        <v>1.875666666666665</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
-        <v>1.835</v>
-      </c>
-      <c r="K254" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9322,40 +9670,32 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>1.832</v>
+        <v>1.834</v>
       </c>
       <c r="C255" t="n">
-        <v>1.832</v>
+        <v>1.833</v>
       </c>
       <c r="D255" t="n">
-        <v>1.832</v>
+        <v>1.834</v>
       </c>
       <c r="E255" t="n">
-        <v>1.831</v>
+        <v>1.833</v>
       </c>
       <c r="F255" t="n">
-        <v>569311.4637</v>
+        <v>125925.896</v>
       </c>
       <c r="G255" t="n">
-        <v>1.874749999999999</v>
+        <v>1.875216666666666</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
-        <v>1.833</v>
-      </c>
-      <c r="K255" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9368,38 +9708,65 @@
         <v>1.832</v>
       </c>
       <c r="C256" t="n">
-        <v>1.83</v>
+        <v>1.832</v>
       </c>
       <c r="D256" t="n">
         <v>1.832</v>
       </c>
       <c r="E256" t="n">
+        <v>1.831</v>
+      </c>
+      <c r="F256" t="n">
+        <v>569311.4637</v>
+      </c>
+      <c r="G256" t="n">
+        <v>1.874749999999999</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>1.832</v>
+      </c>
+      <c r="C257" t="n">
         <v>1.83</v>
       </c>
-      <c r="F256" t="n">
+      <c r="D257" t="n">
+        <v>1.832</v>
+      </c>
+      <c r="E257" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="F257" t="n">
         <v>195331.772519213</v>
       </c>
-      <c r="G256" t="n">
+      <c r="G257" t="n">
         <v>1.874249999999999</v>
       </c>
-      <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="n">
-        <v>1.832</v>
-      </c>
-      <c r="K256" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest HYC.xlsx
+++ b/BackTest/2020-01-16 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N325"/>
+  <dimension ref="A1:M325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1804,19 @@
         <v>-7948478.248199997</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
+        <v>1.801</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.801</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1843,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1.801</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1882,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1.801</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1921,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1954,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1987,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2020,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2051,21 @@
         <v>-8066418.221799998</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1.813</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2090,21 @@
         <v>-8086926.835499997</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1.841</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2129,21 @@
         <v>-8134633.163299997</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2168,21 @@
         <v>-8134633.163299997</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,22 +2207,21 @@
         <v>-8025096.163299997</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
         <v>1.8</v>
       </c>
-      <c r="K54" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2368,26 +2246,21 @@
         <v>-8025096.163299997</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
         <v>1.81</v>
       </c>
-      <c r="K55" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2412,26 +2285,21 @@
         <v>-8025096.163299997</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
         <v>1.81</v>
       </c>
-      <c r="K56" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2456,22 +2324,21 @@
         <v>-8084506.063499997</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
         <v>1.81</v>
       </c>
-      <c r="K57" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2496,26 +2363,21 @@
         <v>-8084506.063499997</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
         <v>1.8</v>
       </c>
-      <c r="K58" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2540,26 +2402,21 @@
         <v>-8084506.063499997</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
         <v>1.8</v>
       </c>
-      <c r="K59" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2584,26 +2441,21 @@
         <v>-7883300.640599998</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
         <v>1.8</v>
       </c>
-      <c r="K60" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2628,26 +2480,21 @@
         <v>-7883300.640599998</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
         <v>1.81</v>
       </c>
-      <c r="K61" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2672,26 +2519,21 @@
         <v>-7882303.709899997</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
         <v>1.81</v>
       </c>
-      <c r="K62" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2716,26 +2558,21 @@
         <v>-7901629.228299998</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
         <v>1.82</v>
       </c>
-      <c r="K63" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2760,26 +2597,21 @@
         <v>-7901629.228299998</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
         <v>1.817</v>
       </c>
-      <c r="K64" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2804,26 +2636,21 @@
         <v>-7982269.228299998</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
         <v>1.817</v>
       </c>
-      <c r="K65" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L65" t="inlineStr">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2848,26 +2675,21 @@
         <v>-7982269.228299998</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
         <v>1.806</v>
       </c>
-      <c r="K66" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L66" t="inlineStr">
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2892,26 +2714,21 @@
         <v>-8034362.617599998</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
         <v>1.806</v>
       </c>
-      <c r="K67" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L67" t="inlineStr">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2936,26 +2753,21 @@
         <v>-7386585.676199998</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
         <v>1.799</v>
       </c>
-      <c r="K68" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L68" t="inlineStr">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2980,24 +2792,21 @@
         <v>-8057310.656399998</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3022,26 +2831,21 @@
         <v>-7949412.992399998</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
         <v>1.796</v>
       </c>
-      <c r="K70" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3066,26 +2870,21 @@
         <v>-7931787.283599998</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
         <v>1.798</v>
       </c>
-      <c r="K71" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L71" t="inlineStr">
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3110,26 +2909,19 @@
         <v>-8031469.424299998</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K72" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L72" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3156,22 +2948,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3196,24 +2983,21 @@
         <v>-8109537.820099998</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3238,26 +3022,21 @@
         <v>-9055450.622699998</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
         <v>1.796</v>
       </c>
-      <c r="K75" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L75" t="inlineStr">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3282,26 +3061,21 @@
         <v>-9054565.140799999</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
         <v>1.787</v>
       </c>
-      <c r="K76" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3326,24 +3100,21 @@
         <v>-9054565.140799999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1.814</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L77" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3370,22 +3141,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3410,26 +3176,19 @@
         <v>-9834528.313499998</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="K79" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L79" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3456,22 +3215,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3496,26 +3250,21 @@
         <v>-9806310.405199999</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
         <v>1.79</v>
       </c>
-      <c r="K81" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L81" t="inlineStr">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3540,26 +3289,21 @@
         <v>-9806310.405199999</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
         <v>1.788</v>
       </c>
-      <c r="K82" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L82" t="inlineStr">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3584,26 +3328,21 @@
         <v>-10652300.1381</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
         <v>1.788</v>
       </c>
-      <c r="K83" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L83" t="inlineStr">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3628,26 +3367,21 @@
         <v>-11013472.2467</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
         <v>1.786</v>
       </c>
-      <c r="K84" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L84" t="inlineStr">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3672,26 +3406,21 @@
         <v>-10331585.5173</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
         <v>1.729</v>
       </c>
-      <c r="K85" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L85" t="inlineStr">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3716,26 +3445,21 @@
         <v>-10306691.2491</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
         <v>1.776</v>
       </c>
-      <c r="K86" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3760,26 +3484,19 @@
         <v>-10338880.936</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>1.782</v>
-      </c>
-      <c r="K87" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L87" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3804,26 +3521,19 @@
         <v>-10485142.8472</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K88" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L88" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3848,26 +3558,21 @@
         <v>-10414084.6782</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
         <v>1.761</v>
       </c>
-      <c r="K89" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3892,26 +3597,21 @@
         <v>-10608232.4874</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
         <v>1.777</v>
       </c>
-      <c r="K90" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L90" t="inlineStr">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3936,26 +3636,21 @@
         <v>-10607941.4031</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
         <v>1.77</v>
       </c>
-      <c r="K91" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L91" t="inlineStr">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3980,26 +3675,21 @@
         <v>-10607941.4031</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
         <v>1.777</v>
       </c>
-      <c r="K92" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L92" t="inlineStr">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4024,26 +3714,21 @@
         <v>-10607941.4031</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
         <v>1.777</v>
       </c>
-      <c r="K93" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L93" t="inlineStr">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4068,26 +3753,21 @@
         <v>-13035958.0808</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
         <v>1.777</v>
       </c>
-      <c r="K94" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L94" t="inlineStr">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4112,26 +3792,19 @@
         <v>-12032711.6284</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="K95" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L95" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4156,26 +3829,19 @@
         <v>-10874622.6955</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1.787</v>
-      </c>
-      <c r="K96" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L96" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4200,26 +3866,19 @@
         <v>-10786421.6131</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="K97" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L97" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4244,26 +3903,21 @@
         <v>-10093387.3286</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
         <v>1.79</v>
       </c>
-      <c r="K98" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4288,26 +3942,21 @@
         <v>-10093387.3286</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
         <v>1.824</v>
       </c>
-      <c r="K99" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L99" t="inlineStr">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4334,22 +3983,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4376,22 +4020,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4418,22 +4057,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4460,22 +4094,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4502,22 +4131,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4544,22 +4168,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4586,22 +4205,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4626,24 +4240,17 @@
         <v>-9592205.293899996</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="K107" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4670,22 +4277,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4712,22 +4310,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4754,22 +4343,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4796,22 +4376,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4836,26 +4407,15 @@
         <v>-10310835.3617</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K112" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4880,26 +4440,15 @@
         <v>-10119859.9605</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="K113" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4926,22 +4475,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4968,22 +4508,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5010,22 +4541,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5052,22 +4574,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5094,22 +4607,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5136,22 +4640,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5178,22 +4673,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5220,22 +4706,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5262,22 +4739,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5304,22 +4772,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5346,22 +4805,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5388,22 +4838,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5430,22 +4871,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5472,22 +4904,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5514,22 +4937,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5556,22 +4970,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5598,22 +5003,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5640,22 +5036,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5682,22 +5069,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5724,22 +5102,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5766,22 +5135,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5808,22 +5168,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5850,22 +5201,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5892,22 +5234,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5934,22 +5267,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5974,24 +5298,15 @@
         <v>-6675468.416799996</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6016,24 +5331,15 @@
         <v>-6675468.416799996</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6060,22 +5366,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6102,22 +5399,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6142,24 +5430,15 @@
         <v>-7024770.716299997</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6184,24 +5463,15 @@
         <v>-7010019.852199997</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6228,22 +5498,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6270,22 +5531,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6312,22 +5564,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6354,22 +5597,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6396,22 +5630,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6438,22 +5663,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6478,24 +5694,15 @@
         <v>-7103721.818199997</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6522,22 +5729,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6564,22 +5762,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6606,22 +5795,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6648,22 +5828,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6690,22 +5861,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6732,22 +5894,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6774,22 +5927,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6814,24 +5958,15 @@
         <v>-6508365.144799997</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6856,24 +5991,15 @@
         <v>-6398950.635599997</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1.044171270718232</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6898,18 +6024,15 @@
         <v>-6373647.985099996</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6934,18 +6057,15 @@
         <v>-5290969.761799997</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6970,18 +6090,15 @@
         <v>-5290969.761799997</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7006,18 +6123,15 @@
         <v>-5311408.187299997</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7042,18 +6156,15 @@
         <v>-6615527.862299996</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7078,18 +6189,15 @@
         <v>-7010341.281799996</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7114,18 +6222,15 @@
         <v>-7010341.281799996</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7150,18 +6255,15 @@
         <v>-7010341.281799996</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7186,18 +6288,15 @@
         <v>-7010082.281799996</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7222,18 +6321,15 @@
         <v>-7011420.253599997</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7260,16 +6356,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7294,18 +6387,15 @@
         <v>-7064031.384099997</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7332,16 +6422,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7368,16 +6455,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7402,18 +6486,15 @@
         <v>-5911468.008599996</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7438,18 +6519,15 @@
         <v>-5881188.008599996</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7476,16 +6554,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7510,18 +6585,15 @@
         <v>-5781188.008599996</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7548,16 +6620,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7584,16 +6653,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7620,16 +6686,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7654,18 +6717,15 @@
         <v>-5433238.893199996</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7692,16 +6752,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7728,16 +6785,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7764,16 +6818,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7798,18 +6849,15 @@
         <v>-4706065.725599997</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7834,18 +6882,15 @@
         <v>-4647005.725599997</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7870,18 +6915,15 @@
         <v>-4709404.855599997</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7908,16 +6950,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7942,18 +6981,15 @@
         <v>-4609404.855599997</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7978,18 +7014,15 @@
         <v>-4724601.612599997</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8014,18 +7047,15 @@
         <v>-4669541.612599997</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8052,16 +7082,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8086,18 +7113,15 @@
         <v>-4707756.031499997</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8124,16 +7148,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8160,16 +7181,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8194,18 +7212,15 @@
         <v>-5841199.967599997</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8232,16 +7247,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8268,16 +7280,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8304,16 +7313,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8338,18 +7344,15 @@
         <v>-5901199.967599997</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8376,16 +7379,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8412,16 +7412,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8448,16 +7445,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8484,16 +7478,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8520,16 +7511,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8556,16 +7544,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8590,18 +7575,15 @@
         <v>-5500151.510799997</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8626,18 +7608,15 @@
         <v>-5386992.897399997</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8662,18 +7641,15 @@
         <v>-5386992.897399997</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8698,18 +7674,15 @@
         <v>-5386992.897399997</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8734,18 +7707,15 @@
         <v>-6432804.676399997</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8772,16 +7742,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8806,18 +7773,15 @@
         <v>-6433864.782699998</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8844,16 +7808,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8880,16 +7841,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8916,16 +7874,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8952,16 +7907,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8988,16 +7940,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9024,16 +7973,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9060,16 +8006,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9096,16 +8039,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9132,16 +8072,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9168,16 +8105,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9204,16 +8138,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9240,16 +8171,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9276,16 +8204,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9312,16 +8237,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9348,16 +8270,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9384,16 +8303,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9420,16 +8336,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9456,16 +8369,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9492,16 +8402,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9528,16 +8435,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9564,16 +8468,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9600,16 +8501,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9636,16 +8534,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9672,16 +8567,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9708,16 +8600,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9744,16 +8633,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9778,18 +8664,15 @@
         <v>-8737983.152199997</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9814,18 +8697,15 @@
         <v>-8737983.152199997</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9852,16 +8732,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9888,16 +8765,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9924,16 +8798,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9960,16 +8831,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9996,16 +8864,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10032,16 +8897,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10068,16 +8930,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10104,16 +8963,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10140,16 +8996,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10176,16 +9029,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10212,16 +9062,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10248,16 +9095,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10284,16 +9128,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10320,16 +9161,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10356,16 +9194,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10392,16 +9227,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10428,16 +9260,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10464,16 +9293,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10500,16 +9326,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10536,16 +9359,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10572,16 +9392,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10608,16 +9425,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10644,16 +9458,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10680,16 +9491,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10716,16 +9524,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10752,16 +9557,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10788,16 +9590,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10824,16 +9623,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10860,16 +9656,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10896,16 +9689,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10932,16 +9722,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10968,16 +9755,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -11002,18 +9786,15 @@
         <v>-9507357.649299994</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -11040,16 +9821,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -11074,18 +9852,15 @@
         <v>-9157896.649299994</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -11112,16 +9887,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11148,16 +9920,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11184,16 +9953,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11220,16 +9986,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11256,16 +10019,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11292,16 +10052,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11326,18 +10083,15 @@
         <v>-9197101.985599995</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11364,16 +10118,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11400,16 +10151,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11436,16 +10184,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11472,16 +10217,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11508,16 +10250,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11544,16 +10283,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11580,16 +10316,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11614,18 +10347,15 @@
         <v>-8874465.650899993</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11652,16 +10382,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11688,16 +10415,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11724,16 +10448,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11760,16 +10481,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11796,16 +10514,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11832,16 +10547,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11868,16 +10580,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11904,16 +10613,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11940,16 +10646,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11976,16 +10679,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -12012,16 +10712,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -12048,16 +10745,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -12084,16 +10778,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -12120,16 +10811,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -12156,16 +10844,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -12192,16 +10877,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -12228,16 +10910,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -12264,16 +10943,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -12300,16 +10976,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -12336,16 +11009,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12372,16 +11042,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12408,16 +11075,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12444,16 +11108,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12480,16 +11141,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12516,16 +11174,13 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12552,16 +11207,13 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12588,16 +11240,13 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12624,16 +11273,13 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12660,16 +11306,13 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12696,16 +11339,13 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12732,16 +11372,13 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12768,16 +11405,13 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12804,18 +11438,15 @@
       <c r="H325" t="n">
         <v>0</v>
       </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest HYC.xlsx
+++ b/BackTest/2020-01-16 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-9412673.743999997</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-9068233.743999997</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-9069533.743999997</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-9069533.743999997</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-9070113.743999997</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-9034738.743999997</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-9034738.743999997</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-8975737.818999996</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-8772645.039599996</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-8636684.995599996</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1804,14 +1804,10 @@
         <v>-7948478.248199997</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1.801</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1.801</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
@@ -1844,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>1.801</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1883,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>1.801</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2051,17 +2035,11 @@
         <v>-8066418.221799998</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2090,17 +2068,11 @@
         <v>-8086926.835499997</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1.841</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2129,17 +2101,11 @@
         <v>-8134633.163299997</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2168,17 +2134,11 @@
         <v>-8134633.163299997</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2207,17 +2167,15 @@
         <v>-8025096.163299997</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>1.8</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2246,15 +2204,17 @@
         <v>-8025096.163299997</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>1.81</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1.8</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -2285,15 +2245,17 @@
         <v>-8025096.163299997</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>1.81</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1.8</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -2324,17 +2286,15 @@
         <v>-8084506.063499997</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>1.81</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2363,15 +2323,17 @@
         <v>-8084506.063499997</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>1.8</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -2402,12 +2364,14 @@
         <v>-8084506.063499997</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>1.8</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2441,12 +2405,14 @@
         <v>-7883300.640599998</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>1.8</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2480,12 +2446,14 @@
         <v>-7883300.640599998</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>1.81</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2519,12 +2487,14 @@
         <v>-7882303.709899997</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>1.81</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2558,12 +2528,14 @@
         <v>-7901629.228299998</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>1.82</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2597,12 +2569,14 @@
         <v>-7901629.228299998</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>1.817</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2636,12 +2610,14 @@
         <v>-7982269.228299998</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>1.817</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2675,12 +2651,14 @@
         <v>-7982269.228299998</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>1.806</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2714,12 +2692,14 @@
         <v>-8034362.617599998</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>1.806</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2753,12 +2733,14 @@
         <v>-7386585.676199998</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>1.799</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2792,12 +2774,12 @@
         <v>-8057310.656399998</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2831,12 +2813,12 @@
         <v>-7949412.992399998</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1.796</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2870,12 +2852,14 @@
         <v>-7931787.283599998</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>1.798</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2909,10 +2893,14 @@
         <v>-8031469.424299998</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2949,7 +2937,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2983,12 +2973,12 @@
         <v>-8109537.820099998</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3022,12 +3012,12 @@
         <v>-9055450.622699998</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1.796</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3061,12 +3051,12 @@
         <v>-9054565.140799999</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1.787</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3100,12 +3090,12 @@
         <v>-9054565.140799999</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3142,7 +3132,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3179,7 +3171,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3216,7 +3210,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3250,12 +3246,14 @@
         <v>-9806310.405199999</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>1.79</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3289,12 +3287,14 @@
         <v>-9806310.405199999</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>1.788</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3328,12 +3328,14 @@
         <v>-10652300.1381</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>1.788</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3367,12 +3369,14 @@
         <v>-11013472.2467</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>1.786</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3406,12 +3410,14 @@
         <v>-10331585.5173</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>1.729</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3445,12 +3451,14 @@
         <v>-10306691.2491</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>1.776</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3484,10 +3492,14 @@
         <v>-10338880.936</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1.782</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3521,10 +3533,14 @@
         <v>-10485142.8472</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3558,12 +3574,14 @@
         <v>-10414084.6782</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>1.761</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3597,12 +3615,14 @@
         <v>-10608232.4874</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>1.777</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3636,12 +3656,14 @@
         <v>-10607941.4031</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>1.77</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3675,12 +3697,14 @@
         <v>-10607941.4031</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>1.777</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3714,12 +3738,14 @@
         <v>-10607941.4031</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>1.777</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3753,12 +3779,14 @@
         <v>-13035958.0808</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>1.777</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3795,7 +3823,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3832,7 +3862,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3866,10 +3898,14 @@
         <v>-10786421.6131</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3903,12 +3939,12 @@
         <v>-10093387.3286</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3942,12 +3978,12 @@
         <v>-10093387.3286</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1.824</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3984,7 +4020,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4021,7 +4059,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4058,7 +4098,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4095,7 +4137,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4132,7 +4176,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4169,7 +4215,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4206,7 +4254,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4240,16 +4290,20 @@
         <v>-9592205.293899996</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
       <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
@@ -4278,8 +4332,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4311,8 +4371,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4344,8 +4410,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4377,8 +4449,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4410,8 +4488,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4440,11 +4524,19 @@
         <v>-10119859.9605</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4476,8 +4568,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4509,8 +4607,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4542,8 +4646,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4575,8 +4685,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4608,8 +4724,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4641,8 +4763,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4674,8 +4802,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4707,8 +4841,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4740,8 +4880,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4773,8 +4919,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4806,8 +4958,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4839,8 +4997,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4872,8 +5036,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4905,8 +5075,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4938,8 +5114,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4971,8 +5153,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5004,8 +5192,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5037,8 +5231,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5070,8 +5270,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5103,8 +5309,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5136,8 +5348,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5169,8 +5387,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5202,8 +5426,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5235,8 +5465,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5268,8 +5504,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5298,11 +5540,17 @@
         <v>-6675468.416799996</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5331,11 +5579,17 @@
         <v>-6675468.416799996</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5367,8 +5621,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5400,8 +5660,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5430,11 +5696,17 @@
         <v>-7024770.716299997</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5463,11 +5735,17 @@
         <v>-7010019.852199997</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5499,8 +5777,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5532,8 +5816,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5565,8 +5855,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5598,8 +5894,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5631,8 +5933,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5664,8 +5972,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5694,11 +6008,17 @@
         <v>-7103721.818199997</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5730,8 +6050,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5763,8 +6089,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5796,8 +6128,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5829,8 +6167,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5862,8 +6206,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5895,8 +6245,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5928,8 +6284,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5958,11 +6320,17 @@
         <v>-6508365.144799997</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5991,11 +6359,17 @@
         <v>-6398950.635599997</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6024,11 +6398,17 @@
         <v>-6373647.985099996</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6057,11 +6437,17 @@
         <v>-5290969.761799997</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6090,11 +6476,17 @@
         <v>-5290969.761799997</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6123,11 +6515,17 @@
         <v>-5311408.187299997</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6156,11 +6554,17 @@
         <v>-6615527.862299996</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6189,13 +6593,19 @@
         <v>-7010341.281799996</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L166" t="n">
-        <v>1</v>
+        <v>1.03975138121547</v>
       </c>
       <c r="M166" t="inlineStr"/>
     </row>
@@ -6222,7 +6632,7 @@
         <v>-7010341.281799996</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6255,7 +6665,7 @@
         <v>-7010341.281799996</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6288,7 +6698,7 @@
         <v>-7010082.281799996</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6321,7 +6731,7 @@
         <v>-7011420.253599997</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6354,7 +6764,7 @@
         <v>-6960420.708299996</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6387,7 +6797,7 @@
         <v>-7064031.384099997</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6420,7 +6830,7 @@
         <v>-7062534.453399996</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6453,7 +6863,7 @@
         <v>-5875965.822699996</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6486,7 +6896,7 @@
         <v>-5911468.008599996</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6519,7 +6929,7 @@
         <v>-5881188.008599996</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6552,7 +6962,7 @@
         <v>-5881188.008599996</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6585,7 +6995,7 @@
         <v>-5781188.008599996</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6618,7 +7028,7 @@
         <v>-5328553.554999996</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6651,7 +7061,7 @@
         <v>-5333131.920699996</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6684,7 +7094,7 @@
         <v>-5391543.688199996</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6717,7 +7127,7 @@
         <v>-5433238.893199996</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6750,7 +7160,7 @@
         <v>-5038078.815199996</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6783,7 +7193,7 @@
         <v>-4678218.815199996</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6816,7 +7226,7 @@
         <v>-4707236.155599996</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6849,7 +7259,7 @@
         <v>-4706065.725599997</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6882,7 +7292,7 @@
         <v>-4647005.725599997</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6915,7 +7325,7 @@
         <v>-4709404.855599997</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6948,7 +7358,7 @@
         <v>-4609404.855599997</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6981,7 +7391,7 @@
         <v>-4609404.855599997</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7014,7 +7424,7 @@
         <v>-4724601.612599997</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7047,7 +7457,7 @@
         <v>-4669541.612599997</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7080,7 +7490,7 @@
         <v>-4669541.612599997</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7113,7 +7523,7 @@
         <v>-4707756.031499997</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7146,7 +7556,7 @@
         <v>-4707756.031499997</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7179,7 +7589,7 @@
         <v>-5876636.457699997</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7212,7 +7622,7 @@
         <v>-5841199.967599997</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7245,7 +7655,7 @@
         <v>-5901199.967599997</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7278,7 +7688,7 @@
         <v>-5901199.967599997</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7311,7 +7721,7 @@
         <v>-5901199.967599997</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7344,7 +7754,7 @@
         <v>-5901199.967599997</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7377,7 +7787,7 @@
         <v>-5901199.967599997</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7410,7 +7820,7 @@
         <v>-5901199.967599997</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7443,7 +7853,7 @@
         <v>-5850065.410399998</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7476,7 +7886,7 @@
         <v>-5408321.900499998</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7509,7 +7919,7 @@
         <v>-5408321.900499998</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7542,7 +7952,7 @@
         <v>-5455151.510799997</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7575,7 +7985,7 @@
         <v>-5500151.510799997</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7608,7 +8018,7 @@
         <v>-5386992.897399997</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7641,7 +8051,7 @@
         <v>-5386992.897399997</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7674,7 +8084,7 @@
         <v>-5386992.897399997</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7707,7 +8117,7 @@
         <v>-6432804.676399997</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7740,7 +8150,7 @@
         <v>-6433864.782699998</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7773,7 +8183,7 @@
         <v>-6433864.782699998</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7806,7 +8216,7 @@
         <v>-6433864.782699998</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7839,7 +8249,7 @@
         <v>-6426292.894099997</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7872,7 +8282,7 @@
         <v>-6414950.894099997</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7905,7 +8315,7 @@
         <v>-6414950.894099997</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7938,7 +8348,7 @@
         <v>-6446200.660499997</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7971,7 +8381,7 @@
         <v>-6315405.127999998</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8004,7 +8414,7 @@
         <v>-6643599.759699997</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8037,7 +8447,7 @@
         <v>-6758599.759699997</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8070,7 +8480,7 @@
         <v>-6758599.759699997</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8103,7 +8513,7 @@
         <v>-6758599.759699997</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8136,7 +8546,7 @@
         <v>-6389285.899299998</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8169,7 +8579,7 @@
         <v>-6389285.899299998</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8202,7 +8612,7 @@
         <v>-6389285.899299998</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8235,7 +8645,7 @@
         <v>-6389021.899299998</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8268,7 +8678,7 @@
         <v>-6389878.004599998</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8301,7 +8711,7 @@
         <v>-7575590.529999997</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8334,7 +8744,7 @@
         <v>-7321159.102199998</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8367,7 +8777,7 @@
         <v>-7321159.102199998</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8400,7 +8810,7 @@
         <v>-7321159.102199998</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8433,7 +8843,7 @@
         <v>-7703498.242699997</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8466,7 +8876,7 @@
         <v>-7748498.242699997</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8499,7 +8909,7 @@
         <v>-7748498.242699997</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8532,7 +8942,7 @@
         <v>-7748498.242699997</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8565,7 +8975,7 @@
         <v>-8737983.152199997</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8598,7 +9008,7 @@
         <v>-8737983.152199997</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8631,7 +9041,7 @@
         <v>-8737983.152199997</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8664,7 +9074,7 @@
         <v>-8737983.152199997</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8697,7 +9107,7 @@
         <v>-8737983.152199997</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8730,7 +9140,7 @@
         <v>-8737718.152199997</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9060,7 +9470,7 @@
         <v>-10176594.2481</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9093,7 +9503,7 @@
         <v>-10176594.2481</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9555,7 +9965,7 @@
         <v>-9535972.985599995</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9786,7 +10196,7 @@
         <v>-9507357.649299994</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9852,7 +10262,7 @@
         <v>-9157896.649299994</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10017,7 +10427,7 @@
         <v>-9197101.985599995</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10050,7 +10460,7 @@
         <v>-9197101.985599995</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10083,7 +10493,7 @@
         <v>-9197101.985599995</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10116,7 +10526,7 @@
         <v>-9197101.985599995</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10149,7 +10559,7 @@
         <v>-9197101.985599995</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10182,7 +10592,7 @@
         <v>-9558799.604499994</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10215,7 +10625,7 @@
         <v>-8107390.623199994</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10248,7 +10658,7 @@
         <v>-8107390.623199994</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10281,7 +10691,7 @@
         <v>-8107390.623199994</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10314,7 +10724,7 @@
         <v>-8138240.623199994</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10347,7 +10757,7 @@
         <v>-8874465.650899993</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10380,7 +10790,7 @@
         <v>-8881362.976699993</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10479,7 +10889,7 @@
         <v>-10670982.51119999</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11447,6 +11857,6 @@
       <c r="M325" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest HYC.xlsx
+++ b/BackTest/2020-01-16 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-9412673.743999997</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-9068233.743999997</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-9069533.743999997</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-9069533.743999997</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-9070113.743999997</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-9034738.743999997</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-9034738.743999997</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-8975737.818999996</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-8772645.039599996</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-8636684.995599996</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -2167,14 +2167,10 @@
         <v>-8025096.163299997</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
@@ -2204,19 +2200,11 @@
         <v>-8025096.163299997</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2245,19 +2233,11 @@
         <v>-8025096.163299997</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="J56" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2286,14 +2266,10 @@
         <v>-8084506.063499997</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
@@ -2323,1106 +2299,908 @@
         <v>-8084506.063499997</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
         <v>1.8</v>
       </c>
-      <c r="J58" t="n">
+      <c r="C59" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F59" t="n">
+        <v>369674.927</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-8084506.063499997</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C60" t="n">
         <v>1.81</v>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="D60" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F60" t="n">
+        <v>201205.4229</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-7883300.640599998</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F61" t="n">
+        <v>188497.6572</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-7883300.640599998</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="F62" t="n">
+        <v>996.9307</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-7882303.709899997</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="F63" t="n">
+        <v>19325.5184</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-7901629.228299998</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-7901629.228299998</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="F65" t="n">
+        <v>80640</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-7982269.228299998</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="F66" t="n">
+        <v>39830</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-7982269.228299998</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F67" t="n">
+        <v>52093.3893</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-8034362.617599998</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="F68" t="n">
+        <v>647776.9414</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-7386585.676199998</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1.796</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.796</v>
+      </c>
+      <c r="F69" t="n">
+        <v>670724.9802</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-8057310.656399998</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1.798</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1.798</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.798</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.798</v>
+      </c>
+      <c r="F70" t="n">
+        <v>107897.664</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-7949412.992399998</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F71" t="n">
+        <v>17625.7088</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-7931787.283599998</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.797</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1.797</v>
+      </c>
+      <c r="F72" t="n">
+        <v>99682.1407</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-8031469.424299998</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1.801</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.801</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F73" t="n">
+        <v>39830</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-7991639.424299998</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1.803</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.796</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.803</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.796</v>
+      </c>
+      <c r="F74" t="n">
+        <v>117898.3958</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-8109537.820099998</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1.797</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1.787</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.797</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.787</v>
+      </c>
+      <c r="F75" t="n">
+        <v>945912.8026000001</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-9055450.622699998</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="F76" t="n">
+        <v>885.4819</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-9054565.140799999</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="F77" t="n">
+        <v>6667.7883</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-9054565.140799999</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1.792</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.792</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="F78" t="n">
+        <v>779963.1727</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-9834528.313499998</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="F79" t="n">
+        <v>29380.3836</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-9834528.313499998</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F80" t="n">
+        <v>31300</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-9803228.313499998</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3082.0917</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-9806310.405199999</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="F82" t="n">
+        <v>36473</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-9806310.405199999</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.786</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.632</v>
+      </c>
+      <c r="F83" t="n">
+        <v>845989.7328999999</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-10652300.1381</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="F84" t="n">
+        <v>361172.1086</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-11013472.2467</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F85" t="n">
+        <v>681886.7294</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-10331585.5173</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="C59" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E59" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F59" t="n">
-        <v>369674.927</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-8084506.063499997</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="C60" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="E60" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F60" t="n">
-        <v>201205.4229</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-7883300.640599998</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="C61" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="E61" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="F61" t="n">
-        <v>188497.6572</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-7883300.640599998</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="C62" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="E62" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="F62" t="n">
-        <v>996.9307</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-7882303.709899997</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="C63" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="E63" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="F63" t="n">
-        <v>19325.5184</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-7901629.228299998</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="C64" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="E64" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-7901629.228299998</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="F65" t="n">
-        <v>80640</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-7982269.228299998</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="C66" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="E66" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="F66" t="n">
-        <v>39830</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-7982269.228299998</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="C67" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="F67" t="n">
-        <v>52093.3893</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-8034362.617599998</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="E68" t="n">
-        <v>1.781</v>
-      </c>
-      <c r="F68" t="n">
-        <v>647776.9414</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-7386585.676199998</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1.796</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="E69" t="n">
-        <v>1.796</v>
-      </c>
-      <c r="F69" t="n">
-        <v>670724.9802</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-8057310.656399998</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>1.798</v>
-      </c>
-      <c r="C70" t="n">
-        <v>1.798</v>
-      </c>
-      <c r="D70" t="n">
-        <v>1.798</v>
-      </c>
-      <c r="E70" t="n">
-        <v>1.798</v>
-      </c>
-      <c r="F70" t="n">
-        <v>107897.664</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-7949412.992399998</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="C71" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="D71" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="E71" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="F71" t="n">
-        <v>17625.7088</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-7931787.283599998</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1.798</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="C72" t="n">
-        <v>1.797</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="E72" t="n">
-        <v>1.797</v>
-      </c>
-      <c r="F72" t="n">
-        <v>99682.1407</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-8031469.424299998</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>1.801</v>
-      </c>
-      <c r="C73" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1.801</v>
-      </c>
-      <c r="E73" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F73" t="n">
-        <v>39830</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-7991639.424299998</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="C74" t="n">
-        <v>1.796</v>
-      </c>
-      <c r="D74" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="E74" t="n">
-        <v>1.796</v>
-      </c>
-      <c r="F74" t="n">
-        <v>117898.3958</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-8109537.820099998</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>1.797</v>
-      </c>
-      <c r="C75" t="n">
-        <v>1.787</v>
-      </c>
-      <c r="D75" t="n">
-        <v>1.797</v>
-      </c>
-      <c r="E75" t="n">
-        <v>1.787</v>
-      </c>
-      <c r="F75" t="n">
-        <v>945912.8026000001</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-9055450.622699998</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="C76" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="E76" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="F76" t="n">
-        <v>885.4819</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-9054565.140799999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="C77" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="D77" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="E77" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="F77" t="n">
-        <v>6667.7883</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-9054565.140799999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>1.792</v>
-      </c>
-      <c r="C78" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1.792</v>
-      </c>
-      <c r="E78" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="F78" t="n">
-        <v>779963.1727</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-9834528.313499998</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="C79" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="E79" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="F79" t="n">
-        <v>29380.3836</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-9834528.313499998</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="C80" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="D80" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="E80" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="F80" t="n">
-        <v>31300</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-9803228.313499998</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>1.788</v>
-      </c>
-      <c r="C81" t="n">
-        <v>1.788</v>
-      </c>
-      <c r="D81" t="n">
-        <v>1.788</v>
-      </c>
-      <c r="E81" t="n">
-        <v>1.788</v>
-      </c>
-      <c r="F81" t="n">
-        <v>3082.0917</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-9806310.405199999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>1.788</v>
-      </c>
-      <c r="C82" t="n">
-        <v>1.788</v>
-      </c>
-      <c r="D82" t="n">
-        <v>1.788</v>
-      </c>
-      <c r="E82" t="n">
-        <v>1.788</v>
-      </c>
-      <c r="F82" t="n">
-        <v>36473</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-9806310.405199999</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1.788</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>1.788</v>
-      </c>
-      <c r="C83" t="n">
-        <v>1.786</v>
-      </c>
-      <c r="D83" t="n">
-        <v>1.788</v>
-      </c>
-      <c r="E83" t="n">
-        <v>1.632</v>
-      </c>
-      <c r="F83" t="n">
-        <v>845989.7328999999</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-10652300.1381</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1.788</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="C84" t="n">
-        <v>1.729</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="E84" t="n">
-        <v>1.729</v>
-      </c>
-      <c r="F84" t="n">
-        <v>361172.1086</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-11013472.2467</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1.786</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>1.729</v>
-      </c>
-      <c r="C85" t="n">
-        <v>1.776</v>
-      </c>
-      <c r="D85" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="E85" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="F85" t="n">
-        <v>681886.7294</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-10331585.5173</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1.729</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3456,9 +3234,7 @@
       <c r="I86" t="n">
         <v>1.776</v>
       </c>
-      <c r="J86" t="n">
-        <v>1.81</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3497,9 +3273,7 @@
       <c r="I87" t="n">
         <v>1.782</v>
       </c>
-      <c r="J87" t="n">
-        <v>1.81</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3538,9 +3312,7 @@
       <c r="I88" t="n">
         <v>1.772</v>
       </c>
-      <c r="J88" t="n">
-        <v>1.81</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3579,9 +3351,7 @@
       <c r="I89" t="n">
         <v>1.761</v>
       </c>
-      <c r="J89" t="n">
-        <v>1.81</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3615,14 +3385,10 @@
         <v>-10608232.4874</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3661,9 +3427,7 @@
       <c r="I91" t="n">
         <v>1.77</v>
       </c>
-      <c r="J91" t="n">
-        <v>1.81</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3702,9 +3466,7 @@
       <c r="I92" t="n">
         <v>1.777</v>
       </c>
-      <c r="J92" t="n">
-        <v>1.81</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3743,9 +3505,7 @@
       <c r="I93" t="n">
         <v>1.777</v>
       </c>
-      <c r="J93" t="n">
-        <v>1.81</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3779,14 +3539,10 @@
         <v>-13035958.0808</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3823,9 +3579,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>1.81</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3862,9 +3616,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>1.81</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3898,14 +3650,10 @@
         <v>-10786421.6131</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3942,9 +3690,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>1.81</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3981,9 +3727,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>1.81</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4020,9 +3764,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>1.81</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4059,9 +3801,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>1.81</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4098,9 +3838,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>1.81</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4137,9 +3875,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>1.81</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4173,20 +3909,16 @@
         <v>-10049670.9356</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>1.81</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
@@ -4212,17 +3944,11 @@
         <v>-10020383.5854</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4254,14 +3980,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4293,14 +4013,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4332,14 +4046,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4371,14 +4079,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4410,14 +4112,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4449,14 +4145,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4488,14 +4178,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4524,19 +4208,11 @@
         <v>-10119859.9605</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="J113" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4568,14 +4244,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4607,14 +4277,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4646,14 +4310,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4685,14 +4343,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4724,14 +4376,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4763,14 +4409,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4802,14 +4442,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4841,14 +4475,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4877,17 +4505,11 @@
         <v>-7341074.165999997</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4916,17 +4538,11 @@
         <v>-7353740.176899998</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4955,17 +4571,11 @@
         <v>-7327266.871799997</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4994,17 +4604,11 @@
         <v>-7326999.871799997</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5033,17 +4637,11 @@
         <v>-7420346.512899997</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5072,17 +4670,11 @@
         <v>-7420346.512899997</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5111,17 +4703,11 @@
         <v>-7492783.237299996</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5150,17 +4736,11 @@
         <v>-7492783.237299996</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5189,17 +4769,11 @@
         <v>-7580283.361499997</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5228,17 +4802,11 @@
         <v>-7387655.750299997</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5267,17 +4835,11 @@
         <v>-7574760.631999996</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5306,17 +4868,11 @@
         <v>-7568760.631999996</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5345,17 +4901,11 @@
         <v>-7558373.372899996</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5384,17 +4934,11 @@
         <v>-7691002.552199996</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5423,17 +4967,11 @@
         <v>-7685711.502999996</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5462,17 +5000,11 @@
         <v>-6740962.361899996</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5501,17 +5033,11 @@
         <v>-6731215.803899996</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5543,14 +5069,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5582,14 +5102,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5621,14 +5135,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5657,17 +5165,11 @@
         <v>-5692805.716299997</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5699,14 +5201,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5735,17 +5231,11 @@
         <v>-7010019.852199997</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5774,17 +5264,11 @@
         <v>-7410339.237399997</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5813,17 +5297,11 @@
         <v>-7410339.237399997</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5852,17 +5330,11 @@
         <v>-7410339.237399997</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5891,17 +5363,11 @@
         <v>-7466339.237399997</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5930,17 +5396,11 @@
         <v>-7092941.176499997</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5969,17 +5429,11 @@
         <v>-7103721.818199997</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6008,17 +5462,11 @@
         <v>-7103721.818199997</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6050,14 +5498,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6089,14 +5531,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6128,14 +5564,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6167,14 +5597,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6206,14 +5630,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6245,14 +5663,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6284,14 +5696,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6323,14 +5729,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6362,14 +5762,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6401,14 +5795,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6440,14 +5828,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6479,14 +5861,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6518,14 +5894,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6557,14 +5927,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6593,19 +5957,13 @@
         <v>-7010341.281799996</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
-        <v>1.03975138121547</v>
+        <v>1</v>
       </c>
       <c r="M166" t="inlineStr"/>
     </row>
@@ -6665,7 +6023,7 @@
         <v>-7010341.281799996</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6698,7 +6056,7 @@
         <v>-7010082.281799996</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6731,7 +6089,7 @@
         <v>-7011420.253599997</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6764,7 +6122,7 @@
         <v>-6960420.708299996</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6797,7 +6155,7 @@
         <v>-7064031.384099997</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6830,7 +6188,7 @@
         <v>-7062534.453399996</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6863,7 +6221,7 @@
         <v>-5875965.822699996</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6896,7 +6254,7 @@
         <v>-5911468.008599996</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6929,7 +6287,7 @@
         <v>-5881188.008599996</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6962,7 +6320,7 @@
         <v>-5881188.008599996</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6995,7 +6353,7 @@
         <v>-5781188.008599996</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7028,7 +6386,7 @@
         <v>-5328553.554999996</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7061,7 +6419,7 @@
         <v>-5333131.920699996</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7094,7 +6452,7 @@
         <v>-5391543.688199996</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7127,7 +6485,7 @@
         <v>-5433238.893199996</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7160,7 +6518,7 @@
         <v>-5038078.815199996</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7193,7 +6551,7 @@
         <v>-4678218.815199996</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7226,7 +6584,7 @@
         <v>-4707236.155599996</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7259,7 +6617,7 @@
         <v>-4706065.725599997</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7292,7 +6650,7 @@
         <v>-4647005.725599997</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7325,7 +6683,7 @@
         <v>-4709404.855599997</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7358,7 +6716,7 @@
         <v>-4609404.855599997</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7391,7 +6749,7 @@
         <v>-4609404.855599997</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7424,7 +6782,7 @@
         <v>-4724601.612599997</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7457,7 +6815,7 @@
         <v>-4669541.612599997</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7490,7 +6848,7 @@
         <v>-4669541.612599997</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7523,7 +6881,7 @@
         <v>-4707756.031499997</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7556,7 +6914,7 @@
         <v>-4707756.031499997</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7589,7 +6947,7 @@
         <v>-5876636.457699997</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7622,7 +6980,7 @@
         <v>-5841199.967599997</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7655,7 +7013,7 @@
         <v>-5901199.967599997</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7688,7 +7046,7 @@
         <v>-5901199.967599997</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7721,7 +7079,7 @@
         <v>-5901199.967599997</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7754,7 +7112,7 @@
         <v>-5901199.967599997</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7787,7 +7145,7 @@
         <v>-5901199.967599997</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7820,7 +7178,7 @@
         <v>-5901199.967599997</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7853,7 +7211,7 @@
         <v>-5850065.410399998</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7886,7 +7244,7 @@
         <v>-5408321.900499998</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7919,7 +7277,7 @@
         <v>-5408321.900499998</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7952,7 +7310,7 @@
         <v>-5455151.510799997</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7985,7 +7343,7 @@
         <v>-5500151.510799997</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8018,7 +7376,7 @@
         <v>-5386992.897399997</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8051,7 +7409,7 @@
         <v>-5386992.897399997</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8084,7 +7442,7 @@
         <v>-5386992.897399997</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8117,7 +7475,7 @@
         <v>-6432804.676399997</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8150,7 +7508,7 @@
         <v>-6433864.782699998</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8183,7 +7541,7 @@
         <v>-6433864.782699998</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8216,7 +7574,7 @@
         <v>-6433864.782699998</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8249,7 +7607,7 @@
         <v>-6426292.894099997</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8282,7 +7640,7 @@
         <v>-6414950.894099997</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8315,7 +7673,7 @@
         <v>-6414950.894099997</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8348,7 +7706,7 @@
         <v>-6446200.660499997</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8381,7 +7739,7 @@
         <v>-6315405.127999998</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8414,7 +7772,7 @@
         <v>-6643599.759699997</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8447,7 +7805,7 @@
         <v>-6758599.759699997</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8480,7 +7838,7 @@
         <v>-6758599.759699997</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8513,7 +7871,7 @@
         <v>-6758599.759699997</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8546,7 +7904,7 @@
         <v>-6389285.899299998</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8579,7 +7937,7 @@
         <v>-6389285.899299998</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8612,7 +7970,7 @@
         <v>-6389285.899299998</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8645,7 +8003,7 @@
         <v>-6389021.899299998</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8678,7 +8036,7 @@
         <v>-6389878.004599998</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8711,7 +8069,7 @@
         <v>-7575590.529999997</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8744,7 +8102,7 @@
         <v>-7321159.102199998</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8777,7 +8135,7 @@
         <v>-7321159.102199998</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8810,7 +8168,7 @@
         <v>-7321159.102199998</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8843,7 +8201,7 @@
         <v>-7703498.242699997</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8876,7 +8234,7 @@
         <v>-7748498.242699997</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8909,7 +8267,7 @@
         <v>-7748498.242699997</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8942,7 +8300,7 @@
         <v>-7748498.242699997</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8975,7 +8333,7 @@
         <v>-8737983.152199997</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9008,7 +8366,7 @@
         <v>-8737983.152199997</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9041,7 +8399,7 @@
         <v>-8737983.152199997</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9074,7 +8432,7 @@
         <v>-8737983.152199997</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9107,7 +8465,7 @@
         <v>-8737983.152199997</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9140,7 +8498,7 @@
         <v>-8737718.152199997</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9470,7 +8828,7 @@
         <v>-10176594.2481</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9503,7 +8861,7 @@
         <v>-10176594.2481</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9965,7 +9323,7 @@
         <v>-9535972.985599995</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10427,7 +9785,7 @@
         <v>-9197101.985599995</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10460,7 +9818,7 @@
         <v>-9197101.985599995</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10493,7 +9851,7 @@
         <v>-9197101.985599995</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10526,7 +9884,7 @@
         <v>-9197101.985599995</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10559,7 +9917,7 @@
         <v>-9197101.985599995</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10592,7 +9950,7 @@
         <v>-9558799.604499994</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10625,7 +9983,7 @@
         <v>-8107390.623199994</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10658,7 +10016,7 @@
         <v>-8107390.623199994</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10691,7 +10049,7 @@
         <v>-8107390.623199994</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10724,7 +10082,7 @@
         <v>-8138240.623199994</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10757,7 +10115,7 @@
         <v>-8874465.650899993</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10790,7 +10148,7 @@
         <v>-8881362.976699993</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10889,7 +10247,7 @@
         <v>-10670982.51119999</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11813,10 +11171,14 @@
         <v>-15448519.2860192</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>1.821</v>
+      </c>
+      <c r="J324" t="n">
+        <v>1.821</v>
+      </c>
       <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
@@ -11846,17 +11208,25 @@
         <v>-15114068.5253192</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J325" t="n">
+        <v>1.821</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
       <c r="M325" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest HYC.xlsx
+++ b/BackTest/2020-01-16 BackTest HYC.xlsx
@@ -2134,10 +2134,14 @@
         <v>-8134633.163299997</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.8</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
@@ -2167,11 +2171,19 @@
         <v>-8025096.163299997</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2212,19 @@
         <v>-8025096.163299997</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,10 +2253,14 @@
         <v>-8025096.163299997</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
@@ -2266,11 +2290,19 @@
         <v>-8084506.063499997</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2331,19 @@
         <v>-8084506.063499997</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2372,19 @@
         <v>-8084506.063499997</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2413,19 @@
         <v>-7883300.640599998</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2454,19 @@
         <v>-7883300.640599998</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2495,19 @@
         <v>-7882303.709899997</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2536,19 @@
         <v>-7901629.228299998</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2577,19 @@
         <v>-7901629.228299998</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2618,19 @@
         <v>-7982269.228299998</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2659,19 @@
         <v>-7982269.228299998</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2700,19 @@
         <v>-8034362.617599998</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2741,19 @@
         <v>-7386585.676199998</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2782,19 @@
         <v>-8057310.656399998</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2823,19 @@
         <v>-7949412.992399998</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1.796</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2864,19 @@
         <v>-7931787.283599998</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1.798</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +2905,19 @@
         <v>-8031469.424299998</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +2946,19 @@
         <v>-7991639.424299998</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1.797</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +2987,19 @@
         <v>-8109537.820099998</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +3028,19 @@
         <v>-9055450.622699998</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1.796</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +3069,19 @@
         <v>-9054565.140799999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1.787</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +3110,19 @@
         <v>-9054565.140799999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +3151,19 @@
         <v>-9834528.313499998</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3192,19 @@
         <v>-9834528.313499998</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3233,19 @@
         <v>-9803228.313499998</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3274,19 @@
         <v>-9806310.405199999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3315,19 @@
         <v>-9806310.405199999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3356,19 @@
         <v>-10652300.1381</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3397,19 @@
         <v>-11013472.2467</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1.786</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3195,10 +3443,12 @@
       <c r="I85" t="n">
         <v>1.729</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -3234,7 +3484,9 @@
       <c r="I86" t="n">
         <v>1.776</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3273,7 +3525,9 @@
       <c r="I87" t="n">
         <v>1.782</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3312,7 +3566,9 @@
       <c r="I88" t="n">
         <v>1.772</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3351,7 +3607,9 @@
       <c r="I89" t="n">
         <v>1.761</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3385,10 +3643,14 @@
         <v>-10608232.4874</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1.777</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3427,7 +3689,9 @@
       <c r="I91" t="n">
         <v>1.77</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3466,7 +3730,9 @@
       <c r="I92" t="n">
         <v>1.777</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3505,7 +3771,9 @@
       <c r="I93" t="n">
         <v>1.777</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3539,10 +3807,14 @@
         <v>-13035958.0808</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1.777</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3576,10 +3848,14 @@
         <v>-12032711.6284</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3613,10 +3889,14 @@
         <v>-10874622.6955</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1.787</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3653,7 +3933,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3687,10 +3969,14 @@
         <v>-10093387.3286</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3727,7 +4013,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3764,7 +4052,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3798,10 +4088,14 @@
         <v>-9985512.940599997</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3835,10 +4129,14 @@
         <v>-9934242.940599997</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1.826</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3875,7 +4173,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3909,16 +4209,20 @@
         <v>-10049670.9356</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1.81</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
       <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
@@ -3944,11 +4248,17 @@
         <v>-10020383.5854</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3980,8 +4290,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4013,8 +4329,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4046,8 +4368,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4076,11 +4404,19 @@
         <v>-10039933.6575</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4109,11 +4445,19 @@
         <v>-9990335.141599998</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4142,11 +4486,19 @@
         <v>-10774366.1525</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4175,11 +4527,19 @@
         <v>-10310835.3617</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4208,11 +4568,19 @@
         <v>-10119859.9605</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4241,11 +4609,19 @@
         <v>-10096407.8858</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1.826</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4277,8 +4653,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4307,11 +4689,19 @@
         <v>-10157545.9192</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4340,11 +4730,19 @@
         <v>-10157545.9192</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4373,11 +4771,19 @@
         <v>-10766795.137</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4406,11 +4812,19 @@
         <v>-10766795.137</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1.795</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4439,11 +4853,19 @@
         <v>-7654129.126099998</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1.795</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4475,8 +4897,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4505,11 +4933,17 @@
         <v>-7341074.165999997</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4538,11 +4972,19 @@
         <v>-7353740.176899998</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4571,11 +5013,17 @@
         <v>-7327266.871799997</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4604,11 +5052,17 @@
         <v>-7326999.871799997</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4637,11 +5091,17 @@
         <v>-7420346.512899997</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4670,11 +5130,17 @@
         <v>-7420346.512899997</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4703,11 +5169,17 @@
         <v>-7492783.237299996</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4736,11 +5208,17 @@
         <v>-7492783.237299996</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4769,11 +5247,17 @@
         <v>-7580283.361499997</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4802,11 +5286,17 @@
         <v>-7387655.750299997</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4835,11 +5325,17 @@
         <v>-7574760.631999996</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4868,11 +5364,17 @@
         <v>-7568760.631999996</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4901,11 +5403,17 @@
         <v>-7558373.372899996</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4934,11 +5442,17 @@
         <v>-7691002.552199996</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4967,11 +5481,17 @@
         <v>-7685711.502999996</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5000,11 +5520,19 @@
         <v>-6740962.361899996</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5033,11 +5561,17 @@
         <v>-6731215.803899996</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5069,8 +5603,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5102,8 +5642,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5135,8 +5681,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5165,11 +5717,17 @@
         <v>-5692805.716299997</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5201,8 +5759,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5231,11 +5795,17 @@
         <v>-7010019.852199997</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5264,11 +5834,17 @@
         <v>-7410339.237399997</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5297,11 +5873,17 @@
         <v>-7410339.237399997</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5330,11 +5912,17 @@
         <v>-7410339.237399997</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5363,11 +5951,17 @@
         <v>-7466339.237399997</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5396,11 +5990,17 @@
         <v>-7092941.176499997</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5429,11 +6029,17 @@
         <v>-7103721.818199997</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5462,11 +6068,17 @@
         <v>-7103721.818199997</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5498,8 +6110,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5531,8 +6149,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5564,8 +6188,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5597,8 +6227,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5630,8 +6266,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5663,8 +6305,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5696,8 +6344,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5729,8 +6383,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5762,8 +6422,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5795,8 +6461,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5828,8 +6500,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5858,15 +6536,23 @@
         <v>-5290969.761799997</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>1.069033149171271</v>
+      </c>
+      <c r="M163" t="n">
+        <v>1.062643678160919</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5891,7 +6577,7 @@
         <v>-5311408.187299997</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5924,7 +6610,7 @@
         <v>-6615527.862299996</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5957,7 +6643,7 @@
         <v>-7010341.281799996</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6089,7 +6775,7 @@
         <v>-7011420.253599997</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6122,7 +6808,7 @@
         <v>-6960420.708299996</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6155,7 +6841,7 @@
         <v>-7064031.384099997</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6188,7 +6874,7 @@
         <v>-7062534.453399996</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6221,7 +6907,7 @@
         <v>-5875965.822699996</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6254,7 +6940,7 @@
         <v>-5911468.008599996</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6287,7 +6973,7 @@
         <v>-5881188.008599996</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6320,7 +7006,7 @@
         <v>-5881188.008599996</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6353,7 +7039,7 @@
         <v>-5781188.008599996</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6386,7 +7072,7 @@
         <v>-5328553.554999996</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6419,7 +7105,7 @@
         <v>-5333131.920699996</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6452,7 +7138,7 @@
         <v>-5391543.688199996</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6485,7 +7171,7 @@
         <v>-5433238.893199996</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6518,7 +7204,7 @@
         <v>-5038078.815199996</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6551,7 +7237,7 @@
         <v>-4678218.815199996</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6584,7 +7270,7 @@
         <v>-4707236.155599996</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6617,7 +7303,7 @@
         <v>-4706065.725599997</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6650,7 +7336,7 @@
         <v>-4647005.725599997</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6683,7 +7369,7 @@
         <v>-4709404.855599997</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6716,7 +7402,7 @@
         <v>-4609404.855599997</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6749,7 +7435,7 @@
         <v>-4609404.855599997</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6782,7 +7468,7 @@
         <v>-4724601.612599997</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6815,7 +7501,7 @@
         <v>-4669541.612599997</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6848,7 +7534,7 @@
         <v>-4669541.612599997</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6881,7 +7567,7 @@
         <v>-4707756.031499997</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6914,7 +7600,7 @@
         <v>-4707756.031499997</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6947,7 +7633,7 @@
         <v>-5876636.457699997</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6980,7 +7666,7 @@
         <v>-5841199.967599997</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7013,7 +7699,7 @@
         <v>-5901199.967599997</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7046,7 +7732,7 @@
         <v>-5901199.967599997</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -10346,10 +11032,14 @@
         <v>-10607640.24759999</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>1.834</v>
+      </c>
+      <c r="J299" t="n">
+        <v>1.834</v>
+      </c>
       <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
@@ -10382,8 +11072,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>1.834</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10415,8 +11111,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>1.834</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10709,10 +11411,14 @@
         <v>-15444002.40529999</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="J310" t="n">
+        <v>1.84</v>
+      </c>
       <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
@@ -10742,11 +11448,19 @@
         <v>-15452482.29879999</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="J311" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10775,11 +11489,19 @@
         <v>-15482284.45699999</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>1.838</v>
+      </c>
+      <c r="J312" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10808,11 +11530,19 @@
         <v>-15608210.35299999</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>1.835</v>
+      </c>
+      <c r="J313" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10841,11 +11571,19 @@
         <v>-16177521.81669999</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>1.833</v>
+      </c>
+      <c r="J314" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10874,11 +11612,19 @@
         <v>-16372853.58921921</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>1.832</v>
+      </c>
+      <c r="J315" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10907,11 +11653,19 @@
         <v>-16340411.9174192</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J316" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10940,11 +11694,19 @@
         <v>-16340411.9174192</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>1.832</v>
+      </c>
+      <c r="J317" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10973,11 +11735,19 @@
         <v>-16366025.19871921</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>1.832</v>
+      </c>
+      <c r="J318" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11006,11 +11776,19 @@
         <v>-16398354.62281921</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>1.827</v>
+      </c>
+      <c r="J319" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11039,11 +11817,19 @@
         <v>-16412096.33431921</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>1.826</v>
+      </c>
+      <c r="J320" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11072,11 +11858,19 @@
         <v>-15194869.53551921</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>1.824</v>
+      </c>
+      <c r="J321" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11105,11 +11899,19 @@
         <v>-15469869.53551921</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>1.826</v>
+      </c>
+      <c r="J322" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11138,11 +11940,19 @@
         <v>-15469869.53551921</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>1.821</v>
+      </c>
+      <c r="J323" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11177,9 +11987,13 @@
         <v>1.821</v>
       </c>
       <c r="J324" t="n">
-        <v>1.821</v>
-      </c>
-      <c r="K324" t="inlineStr"/>
+        <v>1.84</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11214,11 +12028,11 @@
         <v>1.83</v>
       </c>
       <c r="J325" t="n">
-        <v>1.821</v>
+        <v>1.84</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L325" t="n">
